--- a/popular_movies_200.xlsx
+++ b/popular_movies_200.xlsx
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1909.929</v>
+        <v>1818.259</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.53</v>
+        <v>6.507</v>
       </c>
       <c r="L2" t="n">
-        <v>884</v>
+        <v>910</v>
       </c>
     </row>
     <row r="3">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1827.512</v>
+        <v>1639.584</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5.653</v>
+        <v>5.947</v>
       </c>
       <c r="L3" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -601,11 +601,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[878, 12]</t>
+          <t>[28, 27, 53]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>693134</v>
+        <v>1096197</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -614,35 +614,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dune: Part Two</t>
+          <t>No Way Up</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Follow the mythic journey of Paul Atreides as he unites with Chani and the Fremen while on a path of revenge against the conspirators who destroyed his family. Facing a choice between the love of his life and the fate of the known universe, Paul endeavors to prevent a terrible future only he can foresee.</t>
+          <t>Characters from different backgrounds are thrown together when the plane they're travelling on crashes into the Pacific Ocean. A nightmare fight for survival ensues with the air supply running out and dangers creeping in from all sides.</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1523.958</v>
+        <v>1245.817</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Dune: Part Two</t>
+          <t>No Way Up</t>
         </is>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8.24</v>
+        <v>6.339</v>
       </c>
       <c r="L4" t="n">
-        <v>3564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5">
@@ -651,11 +651,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[28, 27, 53]</t>
+          <t>[878, 12]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1096197</v>
+        <v>693134</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -664,35 +664,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>No Way Up</t>
+          <t>Dune: Part Two</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Characters from different backgrounds are thrown together when the plane they're travelling on crashes into the Pacific Ocean. A nightmare fight for survival ensues with the air supply running out and dangers creeping in from all sides.</t>
+          <t>Follow the mythic journey of Paul Atreides as he unites with Chani and the Fremen while on a path of revenge against the conspirators who destroyed his family. Facing a choice between the love of his life and the fate of the known universe, Paul endeavors to prevent a terrible future only he can foresee.</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1427.554</v>
+        <v>1390.639</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>No Way Up</t>
+          <t>Dune: Part Two</t>
         </is>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6.393</v>
+        <v>8.237</v>
       </c>
       <c r="L5" t="n">
-        <v>538</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="6">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1347.472</v>
+        <v>1187.439</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6.134</v>
+        <v>6.14</v>
       </c>
       <c r="L6" t="n">
-        <v>621</v>
+        <v>628</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1341.333</v>
+        <v>1230.013</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -789,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>7.147</v>
+        <v>7.133</v>
       </c>
       <c r="L7" t="n">
-        <v>1458</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="8">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>965.876</v>
+        <v>892.5700000000001</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.277</v>
+        <v>6.254</v>
       </c>
       <c r="L8" t="n">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>854.279</v>
+        <v>796.029</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.553</v>
+        <v>6.528</v>
       </c>
       <c r="L9" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>788.365</v>
+        <v>843.881</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5.158</v>
+        <v>5.05</v>
       </c>
       <c r="L10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>767.496</v>
+        <v>651.9690000000001</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>6.8</v>
+        <v>6.885</v>
       </c>
       <c r="L11" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -1001,48 +1001,48 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[10752, 28, 36]</t>
+          <t>[878, 27, 28]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>976906</v>
+        <v>940721</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Spitfire Over Berlin</t>
+          <t>ゴジラ-1.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>August 1944. With the American Eighth Air Force poised to strike over Nazi Germany, British Intelligence learns that they could be flying into a deadly trap. With only hours to spare, Flight Lieutenant Edward Barnes must fly a life and death mission over Berlin in his unarmed Spitfire to obtain photographic evidence and save the lives of 1200 men.</t>
+          <t>Postwar Japan is at its lowest point when a new crisis emerges in the form of a giant monster, baptized in the horrific power of the atomic bomb.</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>718.794</v>
+        <v>726.877</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Spitfire Over Berlin</t>
+          <t>Godzilla Minus One</t>
         </is>
       </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>4.286</v>
+        <v>7.936</v>
       </c>
       <c r="L12" t="n">
-        <v>14</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13">
@@ -1051,11 +1051,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[28, 14]</t>
+          <t>[10752, 28, 36]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>634492</v>
+        <v>976906</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1064,35 +1064,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Madame Web</t>
+          <t>Spitfire Over Berlin</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Forced to confront revelations about her past, paramedic Cassandra Webb forges a relationship with three young women destined for powerful futures...if they can all survive a deadly present.</t>
+          <t>August 1944. With the American Eighth Air Force poised to strike over Nazi Germany, British Intelligence learns that they could be flying into a deadly trap. With only hours to spare, Flight Lieutenant Edward Barnes must fly a life and death mission over Berlin in his unarmed Spitfire to obtain photographic evidence and save the lives of 1200 men.</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>718.301</v>
+        <v>667.795</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Madame Web</t>
+          <t>Spitfire Over Berlin</t>
         </is>
       </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>5.615</v>
+        <v>4.133</v>
       </c>
       <c r="L13" t="n">
-        <v>1191</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>692.586</v>
+        <v>678.79</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>7.114</v>
+        <v>7.104</v>
       </c>
       <c r="L14" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
@@ -1151,48 +1151,48 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[878, 28, 14, 12]</t>
+          <t>[878, 12, 28]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>601796</v>
+        <v>653346</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ko</t>
+          <t>en</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>외계+인 1부</t>
+          <t>Kingdom of the Planet of the Apes</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gurus in the late Goryeo dynasty try to obtain a fabled, holy sword, and humans in 2022 hunt down an alien prisoner that is locked in a human's body. The two parties cross paths when a time-traveling portal opens up.</t>
+          <t>Several generations in the future following Caesar's reign, apes are now the dominant species and live harmoniously while humans have been reduced to living in the shadows. As a new tyrannical ape leader builds his empire, one young ape undertakes a harrowing journey that will cause him to question all that he has known about the past and to make choices that will define a future for apes and humans alike.</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>670.405</v>
+        <v>686.196</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Alienoid</t>
+          <t>Kingdom of the Planet of the Apes</t>
         </is>
       </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>6.781</v>
+        <v>7.1</v>
       </c>
       <c r="L15" t="n">
-        <v>301</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1201,48 +1201,48 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[28, 80, 53]</t>
+          <t>[878, 28, 14, 12]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1105407</v>
+        <v>601796</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>ko</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Damaged</t>
+          <t>외계+인 1부</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A Chicago detective travels to Scotland after an emerging serial killer’s crimes match those that he investigated five years earlier, one of which was the crime scene of his murdered girlfriend.</t>
+          <t>Gurus in the late Goryeo dynasty try to obtain a fabled, holy sword, and humans in 2022 hunt down an alien prisoner that is locked in a human's body. The two parties cross paths when a time-traveling portal opens up.</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>669.403</v>
+        <v>570.84</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Damaged</t>
+          <t>Alienoid</t>
         </is>
       </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>4.877</v>
+        <v>6.801</v>
       </c>
       <c r="L16" t="n">
-        <v>60</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17">
@@ -1251,11 +1251,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[878, 12, 28]</t>
+          <t>[28, 80, 53]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>653346</v>
+        <v>1105407</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1264,35 +1264,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kingdom of the Planet of the Apes</t>
+          <t>Damaged</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Several generations in the future following Caesar's reign, apes are now the dominant species and live harmoniously while humans have been reduced to living in the shadows. As a new tyrannical ape leader builds his empire, one young ape undertakes a harrowing journey that will cause him to question all that he has known about the past and to make choices that will define a future for apes and humans alike.</t>
+          <t>A Chicago detective travels to Scotland after an emerging serial killer’s crimes match those that he investigated five years earlier, one of which was the crime scene of his murdered girlfriend.</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>667.893</v>
+        <v>554.819</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Kingdom of the Planet of the Apes</t>
+          <t>Damaged</t>
         </is>
       </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>4.821</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>661.302</v>
+        <v>625.7910000000001</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>7.016</v>
+        <v>7.018</v>
       </c>
       <c r="L18" t="n">
-        <v>1646</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="19">
@@ -1351,11 +1351,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[16, 28, 12, 35, 10751]</t>
+          <t>[28, 14]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>940551</v>
+        <v>634492</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1364,35 +1364,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Migration</t>
+          <t>Madame Web</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>After a migrating duck family alights on their pond with thrilling tales of far-flung places, the Mallard family embarks on a family road trip, from New England, to New York City, to tropical Jamaica.</t>
+          <t>Forced to confront revelations about her past, paramedic Cassandra Webb forges a relationship with three young women destined for powerful futures...if they can all survive a deadly present.</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>655.779</v>
+        <v>636.241</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Migration</t>
+          <t>Madame Web</t>
         </is>
       </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.508</v>
+        <v>5.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1265</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="20">
@@ -1401,48 +1401,48 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[80, 10749, 53]</t>
+          <t>[28, 53, 10752]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>948549</v>
+        <v>784651</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Love Lies Bleeding</t>
+          <t>फाइटर</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Reclusive gym manager Lou falls hard for Jackie, an ambitious bodybuilder headed through town to Las Vegas in pursuit of her dream. But their love ignites violence, pulling them deep into the web of Lou’s criminal family.</t>
+          <t>Top IAF aviators come together in the face of imminent danger, to form Air Dragons. Fighter unfolds their camaraderie, brotherhood and battles, internal and external.</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>653.2910000000001</v>
+        <v>605.327</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Love Lies Bleeding</t>
+          <t>Fighter</t>
         </is>
       </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>6.771</v>
+        <v>5.302</v>
       </c>
       <c r="L20" t="n">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -1451,45 +1451,45 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[28, 53, 10752]</t>
+          <t>[16, 878, 28]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>784651</v>
+        <v>1209288</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>en</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>फाइटर</t>
+          <t>Justice League: Crisis on Infinite Earths Part Two</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Top IAF aviators come together in the face of imminent danger, to form Air Dragons. Fighter unfolds their camaraderie, brotherhood and battles, internal and external.</t>
+          <t>An endless army of shadow demons bent on the destruction of all reality swarms over our world and all parallel Earths! The only thing opposing them is the mightiest team of metahumans ever assembled. But not even the combined power of Superman, Batman, Wonder Woman, Green Lantern and all their fellow superheroes can slow down the onslaught of this invincible horde. What mysterious force is driving them? And how do the long-buried secrets of the Monitor and Supergirl threaten to crush our last defense?</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>630.946</v>
+        <v>534.998</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Fighter</t>
+          <t>Justice League: Crisis on Infinite Earths Part Two</t>
         </is>
       </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>5.183</v>
+        <v>6.5</v>
       </c>
       <c r="L21" t="n">
         <v>52</v>
@@ -1501,11 +1501,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[16, 878, 28]</t>
+          <t>[16, 28, 12, 35, 10751]</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1209288</v>
+        <v>940551</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1514,35 +1514,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Justice League: Crisis on Infinite Earths Part Two</t>
+          <t>Migration</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>An endless army of shadow demons bent on the destruction of all reality swarms over our world and all parallel Earths! The only thing opposing them is the mightiest team of metahumans ever assembled. But not even the combined power of Superman, Batman, Wonder Woman, Green Lantern and all their fellow superheroes can slow down the onslaught of this invincible horde. What mysterious force is driving them? And how do the long-buried secrets of the Monitor and Supergirl threaten to crush our last defense?</t>
+          <t>After a migrating duck family alights on their pond with thrilling tales of far-flung places, the Mallard family embarks on a family road trip, from New England, to New York City, to tropical Jamaica.</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>625.273</v>
+        <v>607.748</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Justice League: Crisis on Infinite Earths Part Two</t>
+          <t>Migration</t>
         </is>
       </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="L22" t="n">
-        <v>52</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="23">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>603.8</v>
+        <v>616.6369999999999</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>8.111000000000001</v>
       </c>
       <c r="L23" t="n">
-        <v>7853</v>
+        <v>7862</v>
       </c>
     </row>
     <row r="24">
@@ -1601,11 +1601,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[10752, 28, 18]</t>
+          <t>[80, 10749, 53]</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>929590</v>
+        <v>948549</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1614,35 +1614,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Civil War</t>
+          <t>Love Lies Bleeding</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>In the near future, a group of war journalists attempt to survive while reporting the truth as the United States stands on the brink of civil war.</t>
+          <t>Reclusive gym manager Lou falls hard for Jackie, an ambitious bodybuilder headed through town to Las Vegas in pursuit of her dream. But their love ignites violence, pulling them deep into the web of Lou’s criminal family.</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>575.5839999999999</v>
+        <v>576.84</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Civil War</t>
+          <t>Love Lies Bleeding</t>
         </is>
       </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>7.411</v>
+        <v>6.8</v>
       </c>
       <c r="L24" t="n">
-        <v>556</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
@@ -1651,11 +1651,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[878, 9648, 53]</t>
+          <t>[10752, 28, 18]</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>720321</v>
+        <v>929590</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1664,35 +1664,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Breathe</t>
+          <t>Civil War</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Air-supply is scarce in the near future, forcing a mother and daughter to fight for survival when two strangers arrive desperate for an oxygenated haven.</t>
+          <t>In the near future, a group of war journalists attempt to survive while reporting the truth as the United States stands on the brink of civil war.</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>549.236</v>
+        <v>541.412</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Breathe</t>
+          <t>Civil War</t>
         </is>
       </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4.975</v>
+        <v>7.4</v>
       </c>
       <c r="L25" t="n">
-        <v>61</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26">
@@ -1701,11 +1701,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[16, 35, 10751]</t>
+          <t>[878, 9648, 53]</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>748783</v>
+        <v>720321</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1714,35 +1714,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>The Garfield Movie</t>
+          <t>Breathe</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garfield, the world-famous, Monday-hating, lasagna-loving indoor cat, is about to have a wild outdoor adventure! After an unexpected reunion with his long-lost father – scruffy street cat Vic – Garfield and his canine friend Odie are forced from their perfectly pampered life into joining Vic in a hilarious, high-stakes heist.</t>
+          <t>Air-supply is scarce in the near future, forcing a mother and daughter to fight for survival when two strangers arrive desperate for an oxygenated haven.</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>541.244</v>
+        <v>516.124</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>The Garfield Movie</t>
+          <t>Breathe</t>
         </is>
       </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>6.9</v>
+        <v>4.975</v>
       </c>
       <c r="L26" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[28, 80, 53]</t>
+          <t>[16, 35, 10751]</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>385687</v>
+        <v>748783</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1764,35 +1764,35 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fast X</t>
+          <t>The Garfield Movie</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Over many missions and against impossible odds, Dom Toretto and his family have outsmarted, out-nerved and outdriven every foe in their path. Now, they confront the most lethal opponent they've ever faced: A terrifying threat emerging from the shadows of the past who's fueled by blood revenge, and who is determined to shatter this family and destroy everything—and everyone—that Dom loves, forever.</t>
+          <t>Garfield, the world-famous, Monday-hating, lasagna-loving indoor cat, is about to have a wild outdoor adventure! After an unexpected reunion with his long-lost father – scruffy street cat Vic – Garfield and his canine friend Odie are forced from their perfectly pampered life into joining Vic in a hilarious, high-stakes heist.</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>538.25</v>
+        <v>757.742</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2023-05-17</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Fast X</t>
+          <t>The Garfield Movie</t>
         </is>
       </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>7.125</v>
+        <v>6.893</v>
       </c>
       <c r="L27" t="n">
-        <v>5111</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1801,11 +1801,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[878, 12]</t>
+          <t>[28, 80, 53]</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>438631</v>
+        <v>385687</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1814,35 +1814,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Dune</t>
+          <t>Fast X</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Paul Atreides, a brilliant and gifted young man born into a great destiny beyond his understanding, must travel to the most dangerous planet in the universe to ensure the future of his family and his people. As malevolent forces explode into conflict over the planet's exclusive supply of the most precious resource in existence-a commodity capable of unlocking humanity's greatest potential-only those who can conquer their fear will survive.</t>
+          <t>Over many missions and against impossible odds, Dom Toretto and his family have outsmarted, out-nerved and outdriven every foe in their path. Now, they confront the most lethal opponent they've ever faced: A terrifying threat emerging from the shadows of the past who's fueled by blood revenge, and who is determined to shatter this family and destroy everything—and everyone—that Dom loves, forever.</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>531.836</v>
+        <v>523.543</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2021-09-15</t>
+          <t>2023-05-17</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Dune</t>
+          <t>Fast X</t>
         </is>
       </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.787</v>
+        <v>7.1</v>
       </c>
       <c r="L28" t="n">
-        <v>11476</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="29">
@@ -1851,48 +1851,48 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[878, 27, 28]</t>
+          <t>[878, 12]</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>940721</v>
+        <v>438631</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>en</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ゴジラ-1.0</t>
+          <t>Dune</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Postwar Japan is at its lowest point when a new crisis emerges in the form of a giant monster, baptized in the horrific power of the atomic bomb.</t>
+          <t>Paul Atreides, a brilliant and gifted young man born into a great destiny beyond his understanding, must travel to the most dangerous planet in the universe to ensure the future of his family and his people. As malevolent forces explode into conflict over the planet's exclusive supply of the most precious resource in existence-a commodity capable of unlocking humanity's greatest potential-only those who can conquer their fear will survive.</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>519.198</v>
+        <v>533.044</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2021-09-15</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Godzilla Minus One</t>
+          <t>Dune</t>
         </is>
       </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>7.931</v>
+        <v>7.784</v>
       </c>
       <c r="L29" t="n">
-        <v>600</v>
+        <v>11488</v>
       </c>
     </row>
     <row r="30">
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>499.956</v>
+        <v>442.777</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>5.72</v>
+        <v>5.713</v>
       </c>
       <c r="L30" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31">
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>483.935</v>
+        <v>392.576</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1989,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.4</v>
+        <v>7.451</v>
       </c>
       <c r="L31" t="n">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32">
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>469.865</v>
+        <v>401.148</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>7.647</v>
+        <v>7.644</v>
       </c>
       <c r="L32" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33">
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>467.492</v>
+        <v>394.054</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>7.4</v>
+        <v>7.376</v>
       </c>
       <c r="L33" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
@@ -2123,7 +2123,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>466.029</v>
+        <v>474.427</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2139,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.683</v>
+        <v>7.684</v>
       </c>
       <c r="L34" t="n">
-        <v>9505</v>
+        <v>9507</v>
       </c>
     </row>
     <row r="35">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>463.616</v>
+        <v>408.798</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>7.817</v>
       </c>
       <c r="L35" t="n">
-        <v>18646</v>
+        <v>18651</v>
       </c>
     </row>
     <row r="36">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>438.074</v>
+        <v>401.813</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>431.651</v>
+        <v>454.815</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>7.07</v>
       </c>
       <c r="L37" t="n">
-        <v>8141</v>
+        <v>8148</v>
       </c>
     </row>
     <row r="38">
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>430.524</v>
+        <v>412.589</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>8.162000000000001</v>
       </c>
       <c r="L38" t="n">
-        <v>24507</v>
+        <v>24510</v>
       </c>
     </row>
     <row r="39">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>426.947</v>
+        <v>546.09</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>419.08</v>
+        <v>423.367</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>7.612</v>
       </c>
       <c r="L40" t="n">
-        <v>29817</v>
+        <v>29818</v>
       </c>
     </row>
     <row r="41">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>417.95</v>
+        <v>443.698</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>5.36</v>
       </c>
       <c r="L41" t="n">
-        <v>6189</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="42">
@@ -2501,11 +2501,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[28, 12, 35]</t>
+          <t>[28, 12, 878]</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>293660</v>
+        <v>298618</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2514,35 +2514,35 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Deadpool</t>
+          <t>The Flash</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>The origin story of former Special Forces operative turned mercenary Wade Wilson, who, after being subjected to a rogue experiment that leaves him with accelerated healing powers, adopts the alter ego Deadpool. Armed with his new abilities and a dark, twisted sense of humor, Deadpool hunts down the man who nearly destroyed his life.</t>
+          <t>When his attempt to save his family inadvertently alters the future, Barry Allen becomes trapped in a reality in which General Zod has returned and there are no Super Heroes to turn to. In order to save the world that he is in and return to the future that he knows, Barry's only hope is to race for his life. But will making the ultimate sacrifice be enough to reset the universe?</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>419.08</v>
+        <v>399.718</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2016-02-09</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Deadpool</t>
+          <t>The Flash</t>
         </is>
       </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>7.612</v>
+        <v>6.7</v>
       </c>
       <c r="L42" t="n">
-        <v>29815</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="43">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[80, 53, 18]</t>
+          <t>[28, 12, 878]</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>475557</v>
+        <v>284053</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2564,35 +2564,35 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Joker</t>
+          <t>Thor: Ragnarok</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>During the 1980s, a failed stand-up comedian is driven insane and turns to a life of crime and chaos in Gotham City while becoming an infamous psychopathic crime figure.</t>
+          <t>Thor is imprisoned on the other side of the universe and finds himself in a race against time to get back to Asgard to stop Ragnarok, the destruction of his home-world and the end of Asgardian civilization, at the hands of a powerful new threat, the ruthless Hela.</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>430.524</v>
+        <v>416.581</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2017-10-02</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Joker</t>
+          <t>Thor: Ragnarok</t>
         </is>
       </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.162000000000001</v>
+        <v>7.592</v>
       </c>
       <c r="L43" t="n">
-        <v>24506</v>
+        <v>20168</v>
       </c>
     </row>
     <row r="44">
@@ -2601,11 +2601,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[28, 12, 878]</t>
+          <t>[28, 53, 878]</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>298618</v>
+        <v>577922</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2614,35 +2614,35 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>The Flash</t>
+          <t>Tenet</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>When his attempt to save his family inadvertently alters the future, Barry Allen becomes trapped in a reality in which General Zod has returned and there are no Super Heroes to turn to. In order to save the world that he is in and return to the future that he knows, Barry's only hope is to race for his life. But will making the ultimate sacrifice be enough to reset the universe?</t>
+          <t>Armed with only one word - Tenet - and fighting for the survival of the entire world, the Protagonist journeys through a twilight world of international espionage on a mission that will unfold in something beyond real time.</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>414.39</v>
+        <v>409.092</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2020-08-22</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>The Flash</t>
+          <t>Tenet</t>
         </is>
       </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>6.744</v>
+        <v>7.183</v>
       </c>
       <c r="L44" t="n">
-        <v>3854</v>
+        <v>9351</v>
       </c>
     </row>
     <row r="45">
@@ -2651,11 +2651,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[28, 53, 10752]</t>
+          <t>[878, 28]</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>969492</v>
+        <v>935271</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2664,35 +2664,35 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Land of Bad</t>
+          <t>After the Pandemic</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>When a Delta Force special ops mission goes terribly wrong, Air Force drone pilot Reaper has 48 hours to remedy what has devolved into a wild rescue operation. With no weapons and no communication other than the drone above, the ground mission suddenly becomes a full-scale battle when the team is discovered by the enemy.</t>
+          <t>Set in a post-apocalyptic world where a global airborne pandemic has wiped out 90% of the Earth's population and only the young and immune have endured as scavengers. For Ellie and Quinn, the daily challenges to stay alive are compounded when they become hunted by the merciless Stalkers.</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>397.677</v>
+        <v>349.723</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2022-03-01</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Land of Bad</t>
+          <t>After the Pandemic</t>
         </is>
       </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>7.256</v>
+        <v>4.8</v>
       </c>
       <c r="L45" t="n">
-        <v>681</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46">
@@ -2701,11 +2701,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[28, 53, 878]</t>
+          <t>[28, 878]</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>218</v>
+        <v>603</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2714,35 +2714,35 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>The Terminator</t>
+          <t>The Matrix</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>In the post-apocalyptic future, reigning tyrannical supercomputers teleport a cyborg assassin known as the "Terminator" back to 1984 to kill Sarah Connor, whose unborn son is destined to lead insurgents against 21st century mechanical hegemony. Meanwhile, the human-resistance movement dispatches a lone warrior to safeguard Sarah. Can he stop the virtually indestructible killing machine?</t>
+          <t>Set in the 22nd century, The Matrix tells the story of a computer hacker who joins a group of underground insurgents fighting the vast and powerful computers who now rule the earth.</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>417.17</v>
+        <v>408.888</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1984-10-26</t>
+          <t>1999-03-31</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>The Terminator</t>
+          <t>The Matrix</t>
         </is>
       </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.662</v>
+        <v>8.214</v>
       </c>
       <c r="L46" t="n">
-        <v>12491</v>
+        <v>24825</v>
       </c>
     </row>
     <row r="47">
@@ -2751,11 +2751,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[28, 18, 878]</t>
+          <t>[27, 53, 9648]</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>263115</v>
+        <v>760104</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2764,35 +2764,35 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>In the near future, a weary Logan cares for an ailing Professor X in a hideout on the Mexican border. But Logan's attempts to hide from the world and his legacy are upended when a young mutant arrives, pursued by dark forces.</t>
+          <t>In 1979, a group of young filmmakers set out to make an adult film in rural Texas, but when their reclusive, elderly hosts catch them in the act, the cast find themselves fighting for their lives.</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>463.616</v>
+        <v>376.679</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2017-02-28</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>7.817</v>
+        <v>6.729</v>
       </c>
       <c r="L47" t="n">
-        <v>18645</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="48">
@@ -2801,11 +2801,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[28, 53, 878]</t>
+          <t>[10751, 35, 16]</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>577922</v>
+        <v>1239146</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2814,35 +2814,35 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Tenet</t>
+          <t>Woody Woodpecker Goes to Camp</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Armed with only one word - Tenet - and fighting for the survival of the entire world, the Protagonist journeys through a twilight world of international espionage on a mission that will unfold in something beyond real time.</t>
+          <t>After getting kicked out of the forest, Woody thinks he's found a forever home at Camp Woo Hoo — until an inspector threatens to shut down the camp.</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>410.528</v>
+        <v>391.439</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-08-22</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Tenet</t>
+          <t>Woody Woodpecker Goes to Camp</t>
         </is>
       </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>7.183</v>
+        <v>6.826</v>
       </c>
       <c r="L48" t="n">
-        <v>9345</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
@@ -2851,11 +2851,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[80, 9648, 53]</t>
+          <t>[878, 12, 28]</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>414906</v>
+        <v>609681</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2864,35 +2864,35 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>The Batman</t>
+          <t>The Marvels</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>In his second year of fighting crime, Batman uncovers corruption in Gotham City that connects to his own family while facing a serial killer known as the Riddler.</t>
+          <t>Carol Danvers, aka Captain Marvel, has reclaimed her identity from the tyrannical Kree and taken revenge on the Supreme Intelligence. But unintended consequences see Carol shouldering the burden of a destabilized universe. When her duties send her to an anomalous wormhole linked to a Kree revolutionary, her powers become entangled with that of Jersey City super-fan Kamala Khan, aka Ms. Marvel, and Carol’s estranged niece, now S.A.B.E.R. astronaut Captain Monica Rambeau. Together, this unlikely trio must team up and learn to work in concert to save the universe.</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>466.029</v>
+        <v>390.533</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>The Batman</t>
+          <t>The Marvels</t>
         </is>
       </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>7.683</v>
+        <v>6.2</v>
       </c>
       <c r="L49" t="n">
-        <v>9505</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="50">
@@ -2901,11 +2901,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[35, 10751, 14]</t>
+          <t>[28, 53, 10752]</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>787699</v>
+        <v>969492</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2914,35 +2914,35 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Wonka</t>
+          <t>Land of Bad</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Willy Wonka – chock-full of ideas and determined to change the world one delectable bite at a time – is proof that the best things in life begin with a dream, and if you’re lucky enough to meet Willy Wonka, anything is possible.</t>
+          <t>When a Delta Force special ops mission goes terribly wrong, Air Force drone pilot Reaper has 48 hours to remedy what has devolved into a wild rescue operation. With no weapons and no communication other than the drone above, the ground mission suddenly becomes a full-scale battle when the team is discovered by the enemy.</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>382.562</v>
+        <v>384.599</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Wonka</t>
+          <t>Land of Bad</t>
         </is>
       </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>7.189</v>
+        <v>7.258</v>
       </c>
       <c r="L50" t="n">
-        <v>2915</v>
+        <v>684</v>
       </c>
     </row>
     <row r="51">
@@ -2951,11 +2951,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[27, 53, 9648]</t>
+          <t>[12, 28, 878]</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>760104</v>
+        <v>10138</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2964,35 +2964,35 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Iron Man 2</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>In 1979, a group of young filmmakers set out to make an adult film in rural Texas, but when their reclusive, elderly hosts catch them in the act, the cast find themselves fighting for their lives.</t>
+          <t>With the world now aware of his dual life as the armored superhero Iron Man, billionaire inventor Tony Stark faces pressure from the government, the press and the public to share his technology with the military. Unwilling to let go of his invention, Stark, with Pepper Potts and James 'Rhodey' Rhodes at his side, must forge new alliances – and confront powerful enemies.</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>401.034</v>
+        <v>408.559</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2010-04-28</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Iron Man 2</t>
         </is>
       </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>6.73</v>
+        <v>6.84</v>
       </c>
       <c r="L51" t="n">
-        <v>2743</v>
+        <v>20403</v>
       </c>
     </row>
     <row r="52">
@@ -3001,11 +3001,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[28, 12, 878]</t>
+          <t>[28, 12, 14]</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>284053</v>
+        <v>297762</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3014,35 +3014,35 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Thor: Ragnarok</t>
+          <t>Wonder Woman</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Thor is imprisoned on the other side of the universe and finds himself in a race against time to get back to Asgard to stop Ragnarok, the destruction of his home-world and the end of Asgardian civilization, at the hands of a powerful new threat, the ruthless Hela.</t>
+          <t>An Amazon princess comes to the world of Man in the grips of the First World War to confront the forces of evil and bring an end to human conflict.</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>412.159</v>
+        <v>397.529</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2017-10-02</t>
+          <t>2017-05-30</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Thor: Ragnarok</t>
+          <t>Wonder Woman</t>
         </is>
       </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>7.592</v>
+        <v>7.228</v>
       </c>
       <c r="L52" t="n">
-        <v>20164</v>
+        <v>19485</v>
       </c>
     </row>
     <row r="53">
@@ -3051,11 +3051,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[878, 12, 28]</t>
+          <t>[18, 10749]</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>609681</v>
+        <v>937287</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3064,35 +3064,35 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>The Marvels</t>
+          <t>Challengers</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Carol Danvers, aka Captain Marvel, has reclaimed her identity from the tyrannical Kree and taken revenge on the Supreme Intelligence. But unintended consequences see Carol shouldering the burden of a destabilized universe. When her duties send her to an anomalous wormhole linked to a Kree revolutionary, her powers become entangled with that of Jersey City super-fan Kamala Khan, aka Ms. Marvel, and Carol’s estranged niece, now S.A.B.E.R. astronaut Captain Monica Rambeau. Together, this unlikely trio must team up and learn to work in concert to save the universe.</t>
+          <t>Tennis player turned coach Tashi has taken her husband, Art, and transformed him into a world-famous Grand Slam champion. To jolt him out of his recent losing streak, she signs him up for a "Challenger" event — close to the lowest level of pro tournament — where he finds himself standing across the net from his former best friend and Tashi's former boyfriend.</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>399.484</v>
+        <v>392.576</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>The Marvels</t>
+          <t>Challengers</t>
         </is>
       </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>6.165</v>
+        <v>7.454</v>
       </c>
       <c r="L53" t="n">
-        <v>2248</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54">
@@ -3101,48 +3101,48 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[28, 14, 10752]</t>
+          <t>[27, 878]</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>856289</v>
+        <v>348</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>zh</t>
+          <t>en</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>封神第一部：朝歌风云</t>
+          <t>Alien</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Based on the most well-known classical fantasy novel of China, Fengshenyanyi, the trilogy is a magnificent eastern high fantasy epic that recreates the prolonged mythical wars between humans, immortals and monsters, which happened more than three thousand years ago.</t>
+          <t>During its return to the earth, commercial spaceship Nostromo intercepts a distress signal from a distant planet. When a three-member team of the crew discovers a chamber containing thousands of eggs on the planet, a creature inside one of the eggs attacks an explorer. The entire crew is unaware of the impending nightmare set to descend upon them when the alien parasite planted inside its unfortunate host is birthed.</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>343.766</v>
+        <v>405.307</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>1979-05-25</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Creation of the Gods I: Kingdom of Storms</t>
+          <t>Alien</t>
         </is>
       </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>7.065</v>
+        <v>8.151999999999999</v>
       </c>
       <c r="L54" t="n">
-        <v>238</v>
+        <v>13894</v>
       </c>
     </row>
     <row r="55">
@@ -3151,11 +3151,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[28, 12, 878]</t>
+          <t>[27, 53, 18]</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>284054</v>
+        <v>405774</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3164,35 +3164,35 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Black Panther</t>
+          <t>Bird Box</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>King T'Challa returns home to the reclusive, technologically advanced African nation of Wakanda to serve as his country's new leader. However, T'Challa soon finds that he is challenged for the throne by factions within his own country as well as without. Using powers reserved to Wakandan kings, T'Challa assumes the Black Panther mantle to join with ex-girlfriend Nakia, the queen-mother, his princess-kid sister, members of the Dora Milaje (the Wakandan 'special forces') and an American secret agent, to prevent Wakanda from being dragged into a world war.</t>
+          <t>Five years after an ominous unseen presence drives most of society to suicide, a survivor and her two children make a desperate bid to reach safety.</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>375.086</v>
+        <v>382.621</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2018-02-13</t>
+          <t>2018-12-13</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Black Panther</t>
+          <t>Bird Box</t>
         </is>
       </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>7.385</v>
+        <v>6.8</v>
       </c>
       <c r="L55" t="n">
-        <v>21625</v>
+        <v>9565</v>
       </c>
     </row>
     <row r="56">
@@ -3201,11 +3201,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[27, 53, 18]</t>
+          <t>[14, 28, 12]</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>405774</v>
+        <v>763215</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3214,35 +3214,35 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Bird Box</t>
+          <t>Damsel</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Five years after an ominous unseen presence drives most of society to suicide, a survivor and her two children make a desperate bid to reach safety.</t>
+          <t>A young woman's marriage to a charming prince turns into a fierce fight for survival when she's offered up as a sacrifice to a fire-breathing dragon.</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>390.744</v>
+        <v>350.342</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2018-12-13</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Bird Box</t>
+          <t>Damsel</t>
         </is>
       </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>6.844</v>
+        <v>7.138</v>
       </c>
       <c r="L56" t="n">
-        <v>9564</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="57">
@@ -3251,11 +3251,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[12, 18, 878]</t>
+          <t>[28, 12, 878]</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>157336</v>
+        <v>299537</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3264,35 +3264,35 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Interstellar</t>
+          <t>Captain Marvel</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>The adventures of a group of explorers who make use of a newly discovered wormhole to surpass the limitations on human space travel and conquer the vast distances involved in an interstellar voyage.</t>
+          <t>The story follows Carol Danvers as she becomes one of the universe’s most powerful heroes when Earth is caught in the middle of a galactic war between two alien races. Set in the 1990s, Captain Marvel is an all-new adventure from a previously unseen period in the history of the Marvel Cinematic Universe.</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>377.755</v>
+        <v>401.409</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2014-11-05</t>
+          <t>2019-03-06</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Interstellar</t>
+          <t>Captain Marvel</t>
         </is>
       </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>8.433</v>
+        <v>6.825</v>
       </c>
       <c r="L57" t="n">
-        <v>34229</v>
+        <v>15234</v>
       </c>
     </row>
     <row r="58">
@@ -3301,11 +3301,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[28, 12, 878]</t>
+          <t>[12, 28, 878]</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>299537</v>
+        <v>11</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3314,35 +3314,35 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Captain Marvel</t>
+          <t>Star Wars</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>The story follows Carol Danvers as she becomes one of the universe’s most powerful heroes when Earth is caught in the middle of a galactic war between two alien races. Set in the 1990s, Captain Marvel is an all-new adventure from a previously unseen period in the history of the Marvel Cinematic Universe.</t>
+          <t>Princess Leia is captured and held hostage by the evil Imperial forces in their effort to take over the galactic Empire. Venturesome Luke Skywalker and dashing captain Han Solo team together with the loveable robot duo R2-D2 and C-3PO to rescue the beautiful princess and restore peace and justice in the Empire.</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>385.998</v>
+        <v>438.551</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2019-03-06</t>
+          <t>1977-05-25</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Captain Marvel</t>
+          <t>Star Wars</t>
         </is>
       </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>6.825</v>
+        <v>8.202999999999999</v>
       </c>
       <c r="L58" t="n">
-        <v>15232</v>
+        <v>19944</v>
       </c>
     </row>
     <row r="59">
@@ -3351,11 +3351,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[12, 28, 878]</t>
+          <t>[27]</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>11</v>
+        <v>1015303</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3364,35 +3364,35 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Star Wars</t>
+          <t>Elevator Game</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Princess Leia is captured and held hostage by the evil Imperial forces in their effort to take over the galactic Empire. Venturesome Luke Skywalker and dashing captain Han Solo team together with the loveable robot duo R2-D2 and C-3PO to rescue the beautiful princess and restore peace and justice in the Empire.</t>
+          <t>Follows socially awkward teenager Ryan, who discovers that the night his sister disappeared she had played ‘The Elevator Game’ — a ritual conducted in an elevator in which players attempt to travel to another dimension using a set of rules that can be found online. Ignoring warnings, he resolves to follow and find her.</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>385.337</v>
+        <v>319.342</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1977-05-25</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Star Wars</t>
+          <t>Elevator Game</t>
         </is>
       </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>8.202999999999999</v>
+        <v>4.613</v>
       </c>
       <c r="L59" t="n">
-        <v>19942</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60">
@@ -3401,11 +3401,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[28, 878, 12]</t>
+          <t>[35, 10751, 14]</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>27205</v>
+        <v>787699</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3414,35 +3414,35 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Inception</t>
+          <t>Wonka</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Cobb, a skilled thief who commits corporate espionage by infiltrating the subconscious of his targets is offered a chance to regain his old life as payment for a task considered to be impossible: "inception", the implantation of another person's idea into a target's subconscious.</t>
+          <t>Willy Wonka – chock-full of ideas and determined to change the world one delectable bite at a time – is proof that the best things in life begin with a dream, and if you’re lucky enough to meet Willy Wonka, anything is possible.</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>373.578</v>
+        <v>384.515</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Inception</t>
+          <t>Wonka</t>
         </is>
       </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>8.368</v>
+        <v>7.188</v>
       </c>
       <c r="L60" t="n">
-        <v>35649</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="61">
@@ -3451,11 +3451,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[28, 12, 14]</t>
+          <t>[12, 18, 878]</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>297762</v>
+        <v>157336</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3464,35 +3464,35 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Wonder Woman</t>
+          <t>Interstellar</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>An Amazon princess comes to the world of Man in the grips of the First World War to confront the forces of evil and bring an end to human conflict.</t>
+          <t>The adventures of a group of explorers who make use of a newly discovered wormhole to surpass the limitations on human space travel and conquer the vast distances involved in an interstellar voyage.</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>396.817</v>
+        <v>365.667</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2017-05-30</t>
+          <t>2014-11-05</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Wonder Woman</t>
+          <t>Interstellar</t>
         </is>
       </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>7.229</v>
+        <v>8.433999999999999</v>
       </c>
       <c r="L61" t="n">
-        <v>19483</v>
+        <v>34236</v>
       </c>
     </row>
     <row r="62">
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>377.434</v>
+        <v>372.639</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>7.39</v>
+        <v>7.4</v>
       </c>
       <c r="L62" t="n">
         <v>4922</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>375.659</v>
+        <v>320.616</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>375.086</v>
+        <v>383.27</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>7.385</v>
+        <v>7.4</v>
       </c>
       <c r="L64" t="n">
         <v>21628</v>
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>373.578</v>
+        <v>384.289</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>8.368</v>
       </c>
       <c r="L65" t="n">
-        <v>35653</v>
+        <v>35654</v>
       </c>
     </row>
     <row r="66">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>373.522</v>
+        <v>320.536</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>8.247</v>
       </c>
       <c r="L66" t="n">
-        <v>28826</v>
+        <v>28827</v>
       </c>
     </row>
     <row r="67">
@@ -3773,7 +3773,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>367.946</v>
+        <v>378.416</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>366.139</v>
+        <v>372.172</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3839,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>8.076000000000001</v>
+        <v>8.077</v>
       </c>
       <c r="L68" t="n">
-        <v>11061</v>
+        <v>11062</v>
       </c>
     </row>
     <row r="69">
@@ -3873,7 +3873,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>363.394</v>
+        <v>317.515</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>361.896</v>
+        <v>359.534</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>8.489000000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>27021</v>
+        <v>27024</v>
       </c>
     </row>
     <row r="71">
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>359.114</v>
+        <v>357.872</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>6.541</v>
       </c>
       <c r="L71" t="n">
-        <v>10207</v>
+        <v>10208</v>
       </c>
     </row>
     <row r="72">
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>358.593</v>
+        <v>373.049</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>5.976</v>
+        <v>6</v>
       </c>
       <c r="L72" t="n">
         <v>6229</v>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>356.115</v>
+        <v>331.423</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4089,10 +4089,10 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>6.104</v>
+        <v>6.1</v>
       </c>
       <c r="L73" t="n">
-        <v>8169</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="74">
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>352.829</v>
+        <v>358.15</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4139,10 +4139,10 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>7.649</v>
+        <v>7.533</v>
       </c>
       <c r="L74" t="n">
-        <v>114</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>347.775</v>
+        <v>321.167</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>6.747</v>
+        <v>6.7</v>
       </c>
       <c r="L75" t="n">
         <v>3972</v>
@@ -4223,7 +4223,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>346.05</v>
+        <v>359.908</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4269,11 +4269,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Brought back to life by an unorthodox scientist, a young woman runs off with a debauched lawyer on a whirlwind adventure across the continents. Free from the prejudices of her times, she grows steadfast in her purpose to stand for equality and liberation.</t>
+          <t>An account of the fantastical evolution of Bella Baxter, a young woman brought back to life by the brilliant and unorthodox scientist Dr. Godwin Baxter.</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>344.904</v>
+        <v>315.868</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4289,10 +4289,10 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>7.789</v>
+        <v>7.787</v>
       </c>
       <c r="L77" t="n">
-        <v>3254</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="78">
@@ -4323,7 +4323,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>343.766</v>
+        <v>321.632</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>343.405</v>
+        <v>344.012</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -4389,10 +4389,10 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>7.378</v>
+        <v>7.379</v>
       </c>
       <c r="L79" t="n">
-        <v>3342</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="80">
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>343.357</v>
+        <v>339.004</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>340.481</v>
+        <v>476.673</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>339.697</v>
+        <v>331.455</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>339.018</v>
+        <v>342.853</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4589,10 +4589,10 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>7.5</v>
+        <v>7.523</v>
       </c>
       <c r="L83" t="n">
-        <v>7688</v>
+        <v>7689</v>
       </c>
     </row>
     <row r="84">
@@ -4623,7 +4623,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>332.761</v>
+        <v>315.332</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -4639,10 +4639,10 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>7.438</v>
+        <v>7.437</v>
       </c>
       <c r="L84" t="n">
-        <v>2213</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="85">
@@ -4673,7 +4673,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>332.114</v>
+        <v>338.325</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>8.244</v>
       </c>
       <c r="L85" t="n">
-        <v>11139</v>
+        <v>11141</v>
       </c>
     </row>
     <row r="86">
@@ -4723,7 +4723,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>331.817</v>
+        <v>352.524</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>7.779</v>
+        <v>7.8</v>
       </c>
       <c r="L86" t="n">
-        <v>11987</v>
+        <v>11988</v>
       </c>
     </row>
     <row r="87">
@@ -4773,7 +4773,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>331.756</v>
+        <v>266.167</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -4789,10 +4789,10 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>6.8</v>
+        <v>6.81</v>
       </c>
       <c r="L87" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88">
@@ -4823,7 +4823,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>330.434</v>
+        <v>324.983</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>7.312</v>
       </c>
       <c r="L88" t="n">
-        <v>10755</v>
+        <v>10758</v>
       </c>
     </row>
     <row r="89">
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>329.071</v>
+        <v>325.867</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>328.585</v>
+        <v>330.562</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>327.126</v>
+        <v>344.838</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>326.005</v>
+        <v>319.157</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5039,10 +5039,10 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>8.035</v>
+        <v>8.036</v>
       </c>
       <c r="L92" t="n">
-        <v>5204</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="93">
@@ -5073,7 +5073,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>325.766</v>
+        <v>331.119</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>7.164</v>
       </c>
       <c r="L93" t="n">
-        <v>14901</v>
+        <v>14903</v>
       </c>
     </row>
     <row r="94">
@@ -5101,11 +5101,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[18, 878, 9648]</t>
+          <t>[878]</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>329865</v>
+        <v>9482</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5114,35 +5114,35 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Arrival</t>
+          <t>Judge Dredd</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Taking place after alien crafts land around the world, an expert linguist is recruited by the military to determine whether they come in peace or are a threat.</t>
+          <t>In a dystopian future, Dredd, the most famous judge (a cop with instant field judiciary powers) is convicted for a crime he did not commit while his murderous counterpart escapes.</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>320.692</v>
+        <v>324.312</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2016-11-10</t>
+          <t>1995-06-30</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Arrival</t>
+          <t>Judge Dredd</t>
         </is>
       </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>7.601</v>
+        <v>5.793</v>
       </c>
       <c r="L94" t="n">
-        <v>17215</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="95">
@@ -5151,11 +5151,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[99]</t>
+          <t>[18, 878, 9648]</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>699280</v>
+        <v>329865</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5164,35 +5164,35 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Becoming</t>
+          <t>Arrival</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Join former first lady Michelle Obama in an intimate documentary looking at her life, hopes and connection with others.</t>
+          <t>Taking place after alien crafts land around the world, an expert linguist is recruited by the military to determine whether they come in peace or are a threat.</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>320.242</v>
+        <v>340.11</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-05-06</t>
+          <t>2016-11-10</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Becoming</t>
+          <t>Arrival</t>
         </is>
       </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>7.397</v>
+        <v>7.6</v>
       </c>
       <c r="L95" t="n">
-        <v>146</v>
+        <v>17217</v>
       </c>
     </row>
     <row r="96">
@@ -5201,11 +5201,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[35, 28, 80]</t>
+          <t>[99]</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>339846</v>
+        <v>699280</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5214,35 +5214,35 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Baywatch</t>
+          <t>Becoming</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Devoted lifeguard Mitch Buchannon butts heads with a brash new recruit. Together, they uncover a local criminal plot that threatens the future of the Bay.</t>
+          <t>Join former first lady Michelle Obama in an intimate documentary looking at her life, hopes and connection with others.</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>319.979</v>
+        <v>325.548</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2017-05-25</t>
+          <t>2020-05-06</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Baywatch</t>
+          <t>Becoming</t>
         </is>
       </c>
       <c r="J96" t="b">
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>6.09</v>
+        <v>7.4</v>
       </c>
       <c r="L96" t="n">
-        <v>7788</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
@@ -5251,48 +5251,48 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[28, 53]</t>
+          <t>[35, 28, 80]</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>850888</v>
+        <v>339846</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>en</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sayen: La cazadora</t>
+          <t>Baywatch</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>The action-packed thriller follows the journey of Sayen, a Mapuche woman who uncovers a dangerous conspiracy led by an international corporation that is destroying her family's land and ravaging the local ecosystems throughout Chile, and takes it upon herself to bring these people to justice and save her family's legacy.</t>
+          <t>Devoted lifeguard Mitch Buchannon butts heads with a brash new recruit. Together, they uncover a local criminal plot that threatens the future of the Bay.</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>319.794</v>
+        <v>314.003</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2017-05-25</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Sayen: The Huntress</t>
+          <t>Baywatch</t>
         </is>
       </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>6.5</v>
+        <v>6.091</v>
       </c>
       <c r="L97" t="n">
-        <v>16</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="98">
@@ -5301,48 +5301,48 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[878]</t>
+          <t>[28, 53]</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>9482</v>
+        <v>850888</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>es</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Judge Dredd</t>
+          <t>Sayen: La cazadora</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>In a dystopian future, Dredd, the most famous judge (a cop with instant field judiciary powers) is convicted for a crime he did not commit while his murderous counterpart escapes.</t>
+          <t>The action-packed thriller follows the journey of Sayen, a Mapuche woman who uncovers a dangerous conspiracy led by an international corporation that is destroying her family's land and ravaging the local ecosystems throughout Chile, and takes it upon herself to bring these people to justice and save her family's legacy.</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>318.745</v>
+        <v>447.712</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1995-06-30</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Judge Dredd</t>
+          <t>Sayen: The Huntress</t>
         </is>
       </c>
       <c r="J98" t="b">
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>5.793</v>
+        <v>6.5</v>
       </c>
       <c r="L98" t="n">
-        <v>2298</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>317.981</v>
+        <v>360.197</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>8.167999999999999</v>
       </c>
       <c r="L99" t="n">
-        <v>11322</v>
+        <v>11323</v>
       </c>
     </row>
     <row r="100">
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>316.674</v>
+        <v>316.502</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>315.944</v>
+        <v>315.393</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>8.009</v>
       </c>
       <c r="L101" t="n">
-        <v>5288</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="102">
@@ -5501,11 +5501,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[28, 9648, 53]</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1366</v>
+        <v>1181548</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -5514,35 +5514,35 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Heart of the Hunter</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>An uneducated collector for a Philadelphia loan shark is given a once-in-a-lifetime opportunity to fight against the world heavyweight boxing champion.</t>
+          <t>A retired assassin is pulled back into action when his friend uncovers a dangerous conspiracy at the heart of the South African government.</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>346.05</v>
+        <v>310.022</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1976-11-21</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Heart of the Hunter</t>
         </is>
       </c>
       <c r="J102" t="b">
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>7.786</v>
+        <v>5.9</v>
       </c>
       <c r="L102" t="n">
-        <v>7511</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103">
@@ -5551,11 +5551,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[28, 53, 80]</t>
+          <t>[80, 18]</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1701</v>
+        <v>103</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -5564,35 +5564,35 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Con Air</t>
+          <t>Taxi Driver</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Newly-paroled former US Army ranger Cameron Poe is headed back to his wife, but must fly home aboard a prison transport flight dubbed "Jailbird" taking the “worst of the worst” prisoners, a group described as “pure predators”, to a new super-prison. Poe faces impossible odds when the transport plane is skyjacked mid-flight by the most vicious criminals in the country led by the mastermind — genius serial killer Cyrus "The Virus" Grissom, and backed by black militant Diamond Dog and psychopath Billy Bedlam.</t>
+          <t>A mentally unstable Vietnam War veteran works as a night-time taxi driver in New York City where the perceived decadence and sleaze feed his urge for violent action.</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>347.775</v>
+        <v>331.25</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>1997-06-05</t>
+          <t>1976-02-09</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Con Air</t>
+          <t>Taxi Driver</t>
         </is>
       </c>
       <c r="J103" t="b">
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>6.747</v>
+        <v>8.151999999999999</v>
       </c>
       <c r="L103" t="n">
-        <v>3971</v>
+        <v>11744</v>
       </c>
     </row>
     <row r="104">
@@ -5601,48 +5601,48 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[28, 35, 18]</t>
+          <t>[10749, 35, 10402]</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1061990</v>
+        <v>843527</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>en</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>シティーハンター</t>
+          <t>The Idea of You</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>An exceptional marksman and hopeless playboy, private eye Ryo Saeba reluctantly forms an alliance with his late partner's sister to investigate his death.</t>
+          <t>40-year-old single mom Solène begins an unexpected romance with 24-year-old Hayes Campbell, the lead singer of August Moon, the hottest boy band on the planet.</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>268.471</v>
+        <v>313.468</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>City Hunter</t>
+          <t>The Idea of You</t>
         </is>
       </c>
       <c r="J104" t="b">
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>6.463</v>
+        <v>7.525</v>
       </c>
       <c r="L104" t="n">
-        <v>68</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105">
@@ -5651,11 +5651,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>[35, 80, 28, 18]</t>
+          <t>[18, 35]</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>399170</v>
+        <v>615777</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -5664,35 +5664,35 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Logan Lucky</t>
+          <t>Babylon</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Trying to reverse a family curse, brothers Jimmy and Clyde Logan set out to execute an elaborate robbery during the legendary Coca-Cola 600 race at the Charlotte Motor Speedway.</t>
+          <t>A tale of outsized ambition and outrageous excess, tracing the rise and fall of multiple characters in an era of unbridled decadence and depravity during Hollywood's transition from silent films to sound films in the late 1920s.</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>290.019</v>
+        <v>328.69</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2017-08-17</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Logan Lucky</t>
+          <t>Babylon</t>
         </is>
       </c>
       <c r="J105" t="b">
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>6.731</v>
+        <v>7.4</v>
       </c>
       <c r="L105" t="n">
-        <v>3356</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="106">
@@ -5701,11 +5701,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[28, 35, 12]</t>
+          <t>[878, 28, 12]</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>383498</v>
+        <v>1924</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -5714,35 +5714,35 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Deadpool 2</t>
+          <t>Superman</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Wisecracking mercenary Deadpool battles the evil and powerful Cable and other bad guys to save a boy's life.</t>
+          <t>Mild-mannered Clark Kent works as a reporter at the Daily Planet alongside his crush, Lois Lane. Clark must summon his superhero alter-ego when the nefarious Lex Luthor launches a plan to take over the world.</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>303.252</v>
+        <v>335.466</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2018-05-10</t>
+          <t>1978-12-14</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Deadpool 2</t>
+          <t>Superman</t>
         </is>
       </c>
       <c r="J106" t="b">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>7.487</v>
+        <v>7.133</v>
       </c>
       <c r="L106" t="n">
-        <v>17020</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="107">
@@ -5751,48 +5751,48 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[18, 878, 9648]</t>
+          <t>[878]</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>329865</v>
+        <v>920342</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>zh</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Arrival</t>
+          <t>异兽战场</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Taking place after alien crafts land around the world, an expert linguist is recruited by the military to determine whether they come in peace or are a threat.</t>
+          <t>The soldier king Qin Yang's fiancée Ye Qin met with an unknown beast and died tragically. Gu Ping invites him to participate in Ye Qin's scientific research before her death. But Gu Ping is using Ye Qin's research results to combine the genes of unknown beasts to create the "Zero" dragon creature. The intelligent dragon creature, coupled with the extra-terrestrial beast evolved by devouring,  an imminent city war is coming...</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>320.692</v>
+        <v>434.512</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2016-11-10</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Arrival</t>
+          <t>Monster's Battlefield</t>
         </is>
       </c>
       <c r="J107" t="b">
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>7.601</v>
+        <v>3</v>
       </c>
       <c r="L107" t="n">
-        <v>17214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -5801,11 +5801,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[53, 80]</t>
+          <t>[27, 53]</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>680</v>
+        <v>609768</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -5814,35 +5814,35 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Pulp Fiction</t>
+          <t>Dear David</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>A burger-loving hit man, his philosophical partner, a drug-addled gangster's moll and a washed-up boxer converge in this sprawling, comedic crime caper. Their adventures unfurl in three stories that ingeniously trip back and forth in time.</t>
+          <t>Shortly after comic artist Adam responds to Internet trolls, he begins experiencing sleep paralysis. As he chronicles increasingly malevolent occurrences in a series of tweets, Adam begins to believe he is being haunted by the ghost of a dead child named David.</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>361.896</v>
+        <v>310.006</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>1994-09-10</t>
+          <t>2023-10-13</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Pulp Fiction</t>
+          <t>Dear David</t>
         </is>
       </c>
       <c r="J108" t="b">
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>8.489000000000001</v>
+        <v>4.264</v>
       </c>
       <c r="L108" t="n">
-        <v>27017</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109">
@@ -5851,48 +5851,48 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[28, 12, 14]</t>
+          <t>[35, 18, 10749, 53]</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>297802</v>
+        <v>79474</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>es</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Aquaman</t>
+          <t>Más que amor, frenesí</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Half-human, half-Atlantean Arthur Curry is taken on the journey of his lifetime to discover if he is worth of being a king.</t>
+          <t>From the land of Almodovar comes a hot new film about drugs, sex &amp;amp; everything else!</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>304.485</v>
+        <v>184.222</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2018-12-07</t>
+          <t>1996-11-15</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Aquaman</t>
+          <t>Not Love, Just Frenzy</t>
         </is>
       </c>
       <c r="J109" t="b">
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>6.896</v>
+        <v>5.5</v>
       </c>
       <c r="L109" t="n">
-        <v>13650</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110">
@@ -5901,11 +5901,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[28, 878, 53]</t>
+          <t>[28, 12, 14]</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>64635</v>
+        <v>297802</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -5914,35 +5914,35 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Total Recall</t>
+          <t>Aquaman</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Factory worker Doug Quaid takes a virtual mind-trip vacation with the Rekall company, opting for implanted memories of being a spy. When the procedure goes wrong, Quaid becomes a wanted man by the police and joins forces with a rebel fighter to stop the evil Chancellor Cohaagen.</t>
+          <t>Half-human, half-Atlantean Arthur Curry is taken on the journey of his lifetime to discover if he is worth of being a king.</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>299.922</v>
+        <v>297.452</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2012-08-02</t>
+          <t>2018-12-07</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Total Recall</t>
+          <t>Aquaman</t>
         </is>
       </c>
       <c r="J110" t="b">
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>6.012</v>
+        <v>6.9</v>
       </c>
       <c r="L110" t="n">
-        <v>5294</v>
+        <v>13651</v>
       </c>
     </row>
     <row r="111">
@@ -5951,48 +5951,48 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[28, 12, 878, 14, 18]</t>
+          <t>[28, 35, 12]</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>624091</v>
+        <v>383498</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>en</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Sri Asih</t>
+          <t>Deadpool 2</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Alana discover the truth about her origin: she’s not an ordinary human being. She may be the gift for humanity and become its protector as Sri Asih. Or a destruction, if she can’t control her anger.</t>
+          <t>Wisecracking mercenary Deadpool battles the evil and powerful Cable and other bad guys to save a boy's life.</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>288.625</v>
+        <v>306.996</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2018-05-10</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Sri Asih</t>
+          <t>Deadpool 2</t>
         </is>
       </c>
       <c r="J111" t="b">
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>6.185</v>
+        <v>7.487</v>
       </c>
       <c r="L111" t="n">
-        <v>84</v>
+        <v>17023</v>
       </c>
     </row>
     <row r="112">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[14, 18, 9648]</t>
+          <t>[14, 12, 35]</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>141</v>
+        <v>967847</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6014,35 +6014,35 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Donnie Darko</t>
+          <t>Ghostbusters: Frozen Empire</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>After narrowly escaping a bizarre accident, a troubled teenager is plagued by visions of a large bunny rabbit that manipulates him to commit a series of crimes.</t>
+          <t>The Spengler family returns to where it all started – the iconic New York City firehouse – to team up with the original Ghostbusters, who've developed a top-secret research lab to take busting ghosts to the next level. But when the discovery of an ancient artifact unleashes an evil force, Ghostbusters new and old must join forces to protect their home and save the world from a second Ice Age.</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>331.817</v>
+        <v>256.112</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2001-01-19</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Donnie Darko</t>
+          <t>Ghostbusters: Frozen Empire</t>
         </is>
       </c>
       <c r="J112" t="b">
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>7.779</v>
+        <v>6.385</v>
       </c>
       <c r="L112" t="n">
-        <v>11984</v>
+        <v>366</v>
       </c>
     </row>
     <row r="113">
@@ -6051,11 +6051,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[16, 10751, 18, 12, 14]</t>
+          <t>[28, 80, 18, 53]</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1022789</v>
+        <v>395990</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6064,35 +6064,35 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Inside Out 2</t>
+          <t>Death Wish</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Teenager Riley's mind headquarters is undergoing a sudden demolition to make room for something entirely unexpected: new Emotions! Joy, Sadness, Anger, Fear and Disgust, who’ve long been running a successful operation by all accounts, aren’t sure how to feel when Anxiety shows up. And it looks like she’s not alone.</t>
+          <t>A mild-mannered father is transformed into a killing machine after his family is torn apart by a violent act.</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>281.177</v>
+        <v>291.024</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2018-03-02</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Inside Out 2</t>
+          <t>Death Wish</t>
         </is>
       </c>
       <c r="J113" t="b">
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="114">
@@ -6101,11 +6101,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[28, 12, 878]</t>
+          <t>[27, 9648]</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>670292</v>
+        <v>635</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -6114,35 +6114,35 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>The Creator</t>
+          <t>Angel Heart</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Amid a future war between the human race and the forces of artificial intelligence, a hardened ex-special forces agent grieving the disappearance of his wife, is recruited to hunt down and kill the Creator, the elusive architect of advanced AI who has developed a mysterious weapon with the power to end the war—and mankind itself.</t>
+          <t>Harry Angel, a down-and-out Brooklyn detective, is hired to track down a singer on an odyssey that will take him through the desperate streets of Harlem, the smoke-filled jazz clubs of New Orleans, and the swamps of Louisiana and its seedy underworld of voodoo.</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>240.347</v>
+        <v>301.259</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>1987-03-06</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>The Creator</t>
+          <t>Angel Heart</t>
         </is>
       </c>
       <c r="J114" t="b">
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>7.099</v>
+        <v>7.1</v>
       </c>
       <c r="L114" t="n">
-        <v>2604</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="115">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[9648, 18]</t>
+          <t>[27]</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>15</v>
+        <v>437342</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -6164,35 +6164,35 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Citizen Kane</t>
+          <t>The First Omen</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Newspaper magnate Charles Foster Kane is taken from his mother as a boy and made the ward of a rich industrialist. As a result, every well-meaning, tyrannical or self-destructive move he makes for the rest of his life appears in some way to be a reaction to that deeply wounding event.</t>
+          <t>When a young American woman is sent to Rome to begin a life of service to the church, she encounters a darkness that causes her to question her own faith and uncovers a terrifying conspiracy that hopes to bring about the birth of evil incarnate.</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>315.944</v>
+        <v>268.506</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>1941-04-17</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Citizen Kane</t>
+          <t>The First Omen</t>
         </is>
       </c>
       <c r="J115" t="b">
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>8.009</v>
+        <v>6.613</v>
       </c>
       <c r="L115" t="n">
-        <v>5288</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116">
@@ -6201,11 +6201,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[28, 53, 80]</t>
+          <t>[28, 878, 53]</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>560016</v>
+        <v>64635</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -6214,35 +6214,35 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Monkey Man</t>
+          <t>Total Recall</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Kid is an anonymous young man who ekes out a meager living in an underground fight club where, night after night, wearing a gorilla mask, he is beaten bloody by more popular fighters for cash. After years of suppressed rage, Kid discovers a way to infiltrate the enclave of the city’s sinister elite. As his childhood trauma boils over, his mysteriously scarred hands unleash an explosive campaign of retribution to settle the score with the men who took everything from him.</t>
+          <t>Factory worker Doug Quaid takes a virtual mind-trip vacation with the Rekall company, opting for implanted memories of being a spy. When the procedure goes wrong, Quaid becomes a wanted man by the police and joins forces with a rebel fighter to stop the evil Chancellor Cohaagen.</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>244.827</v>
+        <v>280.491</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2012-08-02</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Monkey Man</t>
+          <t>Total Recall</t>
         </is>
       </c>
       <c r="J116" t="b">
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>7.181</v>
+        <v>6.012</v>
       </c>
       <c r="L116" t="n">
-        <v>290</v>
+        <v>5294</v>
       </c>
     </row>
     <row r="117">
@@ -6251,11 +6251,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[18, 35]</t>
+          <t>[16, 35, 878]</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>400928</v>
+        <v>1239251</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -6264,35 +6264,35 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Gifted</t>
+          <t>Megamind vs. the Doom Syndicate</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Frank, a single man raising his child prodigy niece Mary, is drawn into a custody battle with his mother.</t>
+          <t>Megamind's former villain team, The Doom Syndicate, has returned. Our newly crowned blue hero must now keep up evil appearances until he can assemble his friends (Roxanne, Ol' Chum and Keiko) to stop his former evil teammates from launching Metro City to the Moon.</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>326.005</v>
+        <v>280.271</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2017-04-07</t>
+          <t>2024-03-29</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Gifted</t>
+          <t>Megamind vs. the Doom Syndicate</t>
         </is>
       </c>
       <c r="J117" t="b">
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>8.035</v>
+        <v>5</v>
       </c>
       <c r="L117" t="n">
-        <v>5204</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118">
@@ -6301,11 +6301,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[27, 53]</t>
+          <t>[18, 36]</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>424139</v>
+        <v>68730</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -6314,35 +6314,35 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Halloween</t>
+          <t>Silence</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Laurie Strode comes to her final confrontation with Michael Myers, the masked figure who has haunted her since she narrowly escaped his killing spree on Halloween night four decades ago.</t>
+          <t>Two Jesuit priests travel to seventeenth century Japan which has, under the Tokugawa shogunate, banned Catholicism and almost all foreign contact.</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>286.25</v>
+        <v>290.061</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2018-10-18</t>
+          <t>2016-12-22</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Halloween</t>
+          <t>Silence</t>
         </is>
       </c>
       <c r="J118" t="b">
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>6.553</v>
+        <v>7.126</v>
       </c>
       <c r="L118" t="n">
-        <v>4517</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="119">
@@ -6351,11 +6351,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[18, 35]</t>
+          <t>[16, 10751, 14, 12]</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>391713</v>
+        <v>1022796</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -6364,35 +6364,35 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Lady Bird</t>
+          <t>Wish</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Lady Bird McPherson, a strong willed, deeply opinionated, artistic 17 year old comes of age in Sacramento. Her relationship with her mother and her upbringing are questioned and tested as she plans to head off to college.</t>
+          <t>Asha, a sharp-witted idealist, makes a wish so powerful that it is answered by a cosmic force – a little ball of boundless energy called Star. Together, Asha and Star confront a most formidable foe - the ruler of Rosas, King Magnifico - to save her community and prove that when the will of one courageous human connects with the magic of the stars, wondrous things can happen.</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>278.844</v>
+        <v>295.203</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2017-09-01</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Lady Bird</t>
+          <t>Wish</t>
         </is>
       </c>
       <c r="J119" t="b">
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>7.268</v>
+        <v>6.467</v>
       </c>
       <c r="L119" t="n">
-        <v>8163</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="120">
@@ -6401,11 +6401,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[35, 28, 80]</t>
+          <t>[28, 12, 878]</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>339846</v>
+        <v>141052</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -6414,35 +6414,35 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Baywatch</t>
+          <t>Justice League</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Devoted lifeguard Mitch Buchannon butts heads with a brash new recruit. Together, they uncover a local criminal plot that threatens the future of the Bay.</t>
+          <t>Fuelled by his restored faith in humanity and inspired by Superman's selfless act, Bruce Wayne and Diana Prince assemble a team of metahumans consisting of Barry Allen, Arthur Curry and Victor Stone to face the catastrophic threat of Steppenwolf and the Parademons who are on the hunt for three Mother Boxes on Earth.</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>319.979</v>
+        <v>260.884</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2017-05-25</t>
+          <t>2017-11-15</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Baywatch</t>
+          <t>Justice League</t>
         </is>
       </c>
       <c r="J120" t="b">
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>6.09</v>
+        <v>6.1</v>
       </c>
       <c r="L120" t="n">
-        <v>7786</v>
+        <v>12625</v>
       </c>
     </row>
     <row r="121">
@@ -6451,48 +6451,48 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[10749, 18]</t>
+          <t>[10749, 35]</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1127166</v>
+        <v>1072790</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>en</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Fabbricante di lacrime</t>
+          <t>Anyone But You</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Adopted together after a tough childhood in an orphanage, Nica and Rigel realize that unexpected but irresistible feelings pull them together.</t>
+          <t>After an amazing first date, Bea and Ben’s fiery attraction turns ice cold — until they find themselves unexpectedly reunited at a destination wedding in Australia. So they do what any two mature adults would do: pretend to be a couple.</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>264.612</v>
+        <v>288.349</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>The Tearsmith</t>
+          <t>Anyone But You</t>
         </is>
       </c>
       <c r="J121" t="b">
         <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>6.5</v>
+        <v>7.081</v>
       </c>
       <c r="L121" t="n">
-        <v>491</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="122">
@@ -6501,11 +6501,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[27, 53, 35]</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>617127</v>
+        <v>1111873</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -6514,35 +6514,35 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Blade</t>
+          <t>Abigail</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>A film set in the Marvel Cinematic Universe (MCU) based on the Marvel Comics character of the same name.</t>
+          <t>After a group of would-be criminals kidnap the 12 year old ballerina daughter of a powerful underworld figure, all they have to do to collect a $50 million ransom is watch the girl overnight. In an isolated mansion, the captors start to dwindle, one by one, and they discover, to their mounting horror, that they’re locked inside with no normal little girl.</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>290.643</v>
+        <v>269.968</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Blade</t>
+          <t>Abigail</t>
         </is>
       </c>
       <c r="J122" t="b">
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>6.878</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123">
@@ -6573,7 +6573,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>290.019</v>
+        <v>287.26</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>289.245</v>
+        <v>279.393</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>288.625</v>
+        <v>270.35</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>286.25</v>
+        <v>302.196</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>284.698</v>
+        <v>248.961</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -6801,11 +6801,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>[16, 10751, 18, 12, 14]</t>
+          <t>[27, 53]</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1022789</v>
+        <v>794</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -6814,35 +6814,35 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Inside Out 2</t>
+          <t>The Omen</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Teenager Riley's mind headquarters is undergoing a sudden demolition to make room for something entirely unexpected: new Emotions! Joy, Sadness, Anger, Fear and Disgust, who’ve long been running a successful operation by all accounts, aren’t sure how to feel when Anxiety shows up. And it looks like she’s not alone.</t>
+          <t>Immediately after their miscarriage, the US diplomat Robert Thorn adopts the newborn Damien without the knowledge of his wife. Yet what he doesn’t know is that their new son is the son of the devil.</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>281.177</v>
+        <v>258.312</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>1976-06-25</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Inside Out 2</t>
+          <t>The Omen</t>
         </is>
       </c>
       <c r="J128" t="b">
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>7.398</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="129">
@@ -6851,11 +6851,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[27, 53]</t>
+          <t>[27, 35]</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>794</v>
+        <v>16281</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -6864,35 +6864,35 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>The Omen</t>
+          <t>Creepshow</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Immediately after their miscarriage, the US diplomat Robert Thorn adopts the newborn Damien without the knowledge of his wife. Yet what he doesn’t know is that their new son is the son of the devil.</t>
+          <t>Five tales in the style of classic '50s horror comics, involving a murdered man emerging from the grave, a meteor's ooze that makes everything grow, a snack for a crated creature, a scheming husband, and a malevolent millionaire with an insect phobia.</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>280.412</v>
+        <v>285.858</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>1976-06-25</t>
+          <t>1982-11-10</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>The Omen</t>
+          <t>Creepshow</t>
         </is>
       </c>
       <c r="J129" t="b">
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>7.398</v>
+        <v>6.93</v>
       </c>
       <c r="L129" t="n">
-        <v>1958</v>
+        <v>958</v>
       </c>
     </row>
     <row r="130">
@@ -6901,11 +6901,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>[27, 35]</t>
+          <t>[18, 35]</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>16281</v>
+        <v>391713</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -6914,35 +6914,35 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Creepshow</t>
+          <t>Lady Bird</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Five tales in the style of classic '50s horror comics, involving a murdered man emerging from the grave, a meteor's ooze that makes everything grow, a snack for a crated creature, a scheming husband, and a malevolent millionaire with an insect phobia.</t>
+          <t>Lady Bird McPherson, a strong willed, deeply opinionated, artistic 17 year old comes of age in Sacramento. Her relationship with her mother and her upbringing are questioned and tested as she plans to head off to college.</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>279.056</v>
+        <v>260.334</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>1982-11-10</t>
+          <t>2017-09-01</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Creepshow</t>
+          <t>Lady Bird</t>
         </is>
       </c>
       <c r="J130" t="b">
         <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>6.93</v>
+        <v>7.269</v>
       </c>
       <c r="L130" t="n">
-        <v>958</v>
+        <v>8165</v>
       </c>
     </row>
     <row r="131">
@@ -6951,11 +6951,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>[18, 35]</t>
+          <t>[28, 80]</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>391713</v>
+        <v>339403</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -6964,35 +6964,35 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Lady Bird</t>
+          <t>Baby Driver</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Lady Bird McPherson, a strong willed, deeply opinionated, artistic 17 year old comes of age in Sacramento. Her relationship with her mother and her upbringing are questioned and tested as she plans to head off to college.</t>
+          <t>After being coerced into working for a crime boss, a young getaway driver finds himself taking part in a heist doomed to fail.</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>278.844</v>
+        <v>291.036</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2017-09-01</t>
+          <t>2017-06-28</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Lady Bird</t>
+          <t>Baby Driver</t>
         </is>
       </c>
       <c r="J131" t="b">
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>7.268</v>
+        <v>7.4</v>
       </c>
       <c r="L131" t="n">
-        <v>8163</v>
+        <v>15161</v>
       </c>
     </row>
     <row r="132">
@@ -7001,11 +7001,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>[28, 80]</t>
+          <t>[80, 28, 878]</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>339403</v>
+        <v>198184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -7014,35 +7014,35 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Baby Driver</t>
+          <t>Chappie</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>After being coerced into working for a crime boss, a young getaway driver finds himself taking part in a heist doomed to fail.</t>
+          <t>Every child comes into the world full of promise, and none more so than Chappie: he is gifted, special, a prodigy. Like any child, Chappie will come under the influence of his surroundings—some good, some bad—and he will rely on his heart and soul to find his way in the world and become his own man. But there's one thing that makes Chappie different from any one else: he is a robot.</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>278.531</v>
+        <v>252.681</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2017-06-28</t>
+          <t>2015-03-04</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Baby Driver</t>
+          <t>Chappie</t>
         </is>
       </c>
       <c r="J132" t="b">
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>7.449</v>
+        <v>6.8</v>
       </c>
       <c r="L132" t="n">
-        <v>15161</v>
+        <v>7675</v>
       </c>
     </row>
     <row r="133">
@@ -7051,11 +7051,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>[80, 28, 878]</t>
+          <t>[28, 35, 14]</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>198184</v>
+        <v>287947</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -7064,35 +7064,35 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Chappie</t>
+          <t>Shazam!</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Every child comes into the world full of promise, and none more so than Chappie: he is gifted, special, a prodigy. Like any child, Chappie will come under the influence of his surroundings—some good, some bad—and he will rely on his heart and soul to find his way in the world and become his own man. But there's one thing that makes Chappie different from any one else: he is a robot.</t>
+          <t>A boy is given the ability to become an adult superhero in times of need with a single magic word.</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>276.548</v>
+        <v>295.724</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2015-03-04</t>
+          <t>2019-03-29</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Chappie</t>
+          <t>Shazam!</t>
         </is>
       </c>
       <c r="J133" t="b">
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>6.78</v>
+        <v>7.017</v>
       </c>
       <c r="L133" t="n">
-        <v>7675</v>
+        <v>9187</v>
       </c>
     </row>
     <row r="134">
@@ -7101,11 +7101,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[28, 35, 14]</t>
+          <t>[878, 28]</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>287947</v>
+        <v>335983</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -7114,35 +7114,35 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Shazam!</t>
+          <t>Venom</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>A boy is given the ability to become an adult superhero in times of need with a single magic word.</t>
+          <t>Investigative journalist Eddie Brock attempts a comeback following a scandal, but accidentally becomes the host of Venom, a violent, super powerful alien symbiote. Soon, he must rely on his newfound powers to protect the world from a shadowy organization looking for a symbiote of their own.</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>273.1</v>
+        <v>284.729</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2019-03-29</t>
+          <t>2018-09-28</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Shazam!</t>
+          <t>Venom</t>
         </is>
       </c>
       <c r="J134" t="b">
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>7.017</v>
+        <v>6.827</v>
       </c>
       <c r="L134" t="n">
-        <v>9185</v>
+        <v>15286</v>
       </c>
     </row>
     <row r="135">
@@ -7151,11 +7151,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>[878, 28]</t>
+          <t>[28, 53, 12]</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>335983</v>
+        <v>447200</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -7164,35 +7164,35 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Venom</t>
+          <t>Skyscraper</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Investigative journalist Eddie Brock attempts a comeback following a scandal, but accidentally becomes the host of Venom, a violent, super powerful alien symbiote. Soon, he must rely on his newfound powers to protect the world from a shadowy organization looking for a symbiote of their own.</t>
+          <t>Framed and on the run, a former FBI agent must save his family from a blazing fire in the world's tallest building.</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>271.474</v>
+        <v>258.101</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2018-09-28</t>
+          <t>2018-07-11</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Venom</t>
+          <t>Skyscraper</t>
         </is>
       </c>
       <c r="J135" t="b">
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>6.827</v>
+        <v>6.316</v>
       </c>
       <c r="L135" t="n">
-        <v>15284</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="136">
@@ -7201,48 +7201,48 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[28, 53, 12]</t>
+          <t>[28, 35, 18]</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>447200</v>
+        <v>1061990</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Skyscraper</t>
+          <t>シティーハンター</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Framed and on the run, a former FBI agent must save his family from a blazing fire in the world's tallest building.</t>
+          <t>An exceptional marksman and hopeless playboy, private eye Ryo Saeba reluctantly forms an alliance with his late partner's sister to investigate his death.</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>270.621</v>
+        <v>229.247</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2018-07-11</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Skyscraper</t>
+          <t>City Hunter</t>
         </is>
       </c>
       <c r="J136" t="b">
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>6.316</v>
+        <v>6.393</v>
       </c>
       <c r="L136" t="n">
-        <v>4793</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137">
@@ -7251,48 +7251,48 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[28, 35, 18]</t>
+          <t>[27, 9648]</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1061990</v>
+        <v>4233</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>en</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>シティーハンター</t>
+          <t>Scream 2</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>An exceptional marksman and hopeless playboy, private eye Ryo Saeba reluctantly forms an alliance with his late partner's sister to investigate his death.</t>
+          <t>Away at college, Sidney Prescott thought she'd finally put the shocking murders that shattered her life behind her... until a copycat killer begins acting out a real-life sequel.</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>268.471</v>
+        <v>238.562</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>1997-12-12</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>City Hunter</t>
+          <t>Scream 2</t>
         </is>
       </c>
       <c r="J137" t="b">
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>6.415</v>
+        <v>6.5</v>
       </c>
       <c r="L137" t="n">
-        <v>71</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="138">
@@ -7301,11 +7301,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[35, 878, 28]</t>
+          <t>[27, 53]</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>533535</v>
+        <v>948</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -7314,35 +7314,35 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Deadpool &amp; Wolverine</t>
+          <t>Halloween</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Third entry in the "Deadpool" franchise. Plot TBA.</t>
+          <t>Fifteen years after murdering his sister on Halloween Night 1963, Michael Myers escapes from a mental hospital and returns to the small town of Haddonfield, Illinois to kill again.</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>267.403</v>
+        <v>245.01</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>1978-10-24</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Deadpool &amp; Wolverine</t>
+          <t>Halloween</t>
         </is>
       </c>
       <c r="J138" t="b">
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>7.554</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>5316</v>
       </c>
     </row>
     <row r="139">
@@ -7351,48 +7351,48 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>[27, 9648]</t>
+          <t>[10749, 18]</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>4233</v>
+        <v>1127166</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>it</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Scream 2</t>
+          <t>Fabbricante di lacrime</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Away at college, Sidney Prescott thought she'd finally put the shocking murders that shattered her life behind her... until a copycat killer begins acting out a real-life sequel.</t>
+          <t>Adopted together after a tough childhood in an orphanage, Nica and Rigel realize that unexpected but irresistible feelings pull them together.</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>267.073</v>
+        <v>248.08</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>1997-12-12</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Scream 2</t>
+          <t>The Tearsmith</t>
         </is>
       </c>
       <c r="J139" t="b">
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>6.5</v>
+        <v>6.484</v>
       </c>
       <c r="L139" t="n">
-        <v>3950</v>
+        <v>497</v>
       </c>
     </row>
     <row r="140">
@@ -7401,11 +7401,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>[27, 53]</t>
+          <t>[28, 878, 53, 12, 14]</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>948</v>
+        <v>399566</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -7414,35 +7414,35 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Halloween</t>
+          <t>Godzilla vs. Kong</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Fifteen years after murdering his sister on Halloween Night 1963, Michael Myers escapes from a mental hospital and returns to the small town of Haddonfield, Illinois to kill again.</t>
+          <t>In a time when monsters walk the Earth, humanity’s fight for its future sets Godzilla and Kong on a collision course that will see the two most powerful forces of nature on the planet collide in a spectacular battle for the ages.</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>266.733</v>
+        <v>245.66</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>1978-10-24</t>
+          <t>2021-03-24</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Halloween</t>
+          <t>Godzilla vs. Kong</t>
         </is>
       </c>
       <c r="J140" t="b">
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>7.554</v>
+        <v>7.619</v>
       </c>
       <c r="L140" t="n">
-        <v>5316</v>
+        <v>9646</v>
       </c>
     </row>
     <row r="141">
@@ -7451,48 +7451,48 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>[10749, 18]</t>
+          <t>[10749, 35]</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1127166</v>
+        <v>621</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>en</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Fabbricante di lacrime</t>
+          <t>Grease</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Adopted together after a tough childhood in an orphanage, Nica and Rigel realize that unexpected but irresistible feelings pull them together.</t>
+          <t>Australian good girl Sandy and greaser Danny fell in love over the summer. But when they unexpectedly discover they're now in the same high school, will they be able to rekindle their romance despite their eccentric friends?</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>264.612</v>
+        <v>246.633</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>1978-07-07</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>The Tearsmith</t>
+          <t>Grease</t>
         </is>
       </c>
       <c r="J141" t="b">
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>6.483</v>
+        <v>7.395</v>
       </c>
       <c r="L141" t="n">
-        <v>493</v>
+        <v>6981</v>
       </c>
     </row>
     <row r="142">
@@ -7501,11 +7501,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>[28, 12, 35]</t>
+          <t>[16, 10751, 12, 14, 35]</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>848538</v>
+        <v>502356</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -7514,35 +7514,35 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Argylle</t>
+          <t>The Super Mario Bros. Movie</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>When the plots of reclusive author Elly Conway's fictional espionage novels begin to mirror the covert actions of a real-life spy organization, quiet evenings at home become a thing of the past. Accompanied by her cat Alfie and Aiden, a cat-allergic spy, Elly races across the world to stay one step ahead of the killers as the line between Conway's fictional world and her real one begins to blur.</t>
+          <t>While working underground to fix a water main, Brooklyn plumbers—and brothers—Mario and Luigi are transported down a mysterious pipe and wander into a magical new world. But when the brothers are separated, Mario embarks on an epic quest to find Luigi.</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>244.553</v>
+        <v>240.404</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2023-04-05</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Argylle</t>
+          <t>The Super Mario Bros. Movie</t>
         </is>
       </c>
       <c r="J142" t="b">
         <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>6.157</v>
+        <v>7.678</v>
       </c>
       <c r="L142" t="n">
-        <v>964</v>
+        <v>8377</v>
       </c>
     </row>
     <row r="143">
@@ -7551,11 +7551,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>[16, 10751, 12, 18, 35]</t>
+          <t>[80, 9648, 53]</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>150540</v>
+        <v>807</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -7564,35 +7564,35 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Inside Out</t>
+          <t>Se7en</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>From an adventurous balloon ride above the clouds to a monster-filled metropolis, Academy Award®-winning director Pete Docter (“Monsters, Inc.,” “Up”) has taken audiences to unique and imaginative places. In Disney and Pixar’s original movie “ Inside Out,” he will take us to the most extraordinary location of all—inside the mind.</t>
+          <t>Two homicide detectives are on a desperate hunt for a serial killer whose crimes are based on the "seven deadly sins" in this dark and haunting film that takes viewers from the tortured remains of one victim to the next. The seasoned Det. Sommerset researches each sin in an effort to get inside the killer's mind, while his novice partner, Mills, scoffs at his efforts to unravel the case.</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>223.693</v>
+        <v>325.528</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2015-06-09</t>
+          <t>1995-09-22</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Inside Out</t>
+          <t>Se7en</t>
         </is>
       </c>
       <c r="J143" t="b">
         <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>7.916</v>
+        <v>8.372999999999999</v>
       </c>
       <c r="L143" t="n">
-        <v>20280</v>
+        <v>20289</v>
       </c>
     </row>
     <row r="144">
@@ -7601,11 +7601,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>[28, 12, 878]</t>
+          <t>[18, 878]</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>667538</v>
+        <v>301337</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -7614,35 +7614,35 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transformers: Rise of the Beasts</t>
+          <t>Downsizing</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>When a new threat capable of destroying the entire planet emerges, Optimus Prime and the Autobots must team up with a powerful faction known as the Maximals. With the fate of humanity hanging in the balance, humans Noah and Elena will do whatever it takes to help the Transformers as they engage in the ultimate battle to save Earth.</t>
+          <t>A kindly occupational therapist undergoes a new procedure to be shrunken to four inches tall so that he and his wife can help save the planet and afford a nice lifestyle at the same time.</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>255.669</v>
+        <v>227.747</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2023-06-06</t>
+          <t>2017-12-22</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Transformers: Rise of the Beasts</t>
+          <t>Downsizing</t>
         </is>
       </c>
       <c r="J144" t="b">
         <v>0</v>
       </c>
       <c r="K144" t="n">
-        <v>7.342</v>
+        <v>5.3</v>
       </c>
       <c r="L144" t="n">
-        <v>4233</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="145">
@@ -7651,11 +7651,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[35, 10749]</t>
+          <t>[12, 18, 10751, 16]</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1143319</v>
+        <v>420818</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -7664,35 +7664,35 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Puppy Love</t>
+          <t>The Lion King</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>After a disastrous first date, wild-child Nicole and socially-anxious Max vow to lose each other’s numbers until they learn that their dogs found a love match, and now puppies are on the way! The hilariously mismatched Nicole and Max are forced to become responsible co-parents, but may end up finding love themselves.</t>
+          <t>Simba idolizes his father, King Mufasa, and takes to heart his own royal destiny. But not everyone in the kingdom celebrates the new cub's arrival. Scar, Mufasa's brother—and former heir to the throne—has plans of his own. The battle for Pride Rock is ravaged with betrayal, tragedy and drama, ultimately resulting in Simba's exile. With help from a curious pair of newfound friends, Simba will have to figure out how to grow up and take back what is rightfully his.</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>198.124</v>
+        <v>251.307</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2019-07-12</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Puppy Love</t>
+          <t>The Lion King</t>
         </is>
       </c>
       <c r="J145" t="b">
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>6.992</v>
+        <v>7.115</v>
       </c>
       <c r="L145" t="n">
-        <v>122</v>
+        <v>9668</v>
       </c>
     </row>
     <row r="146">
@@ -7701,11 +7701,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[878]</t>
+          <t>[80, 18]</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>9482</v>
+        <v>235</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -7714,35 +7714,35 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Judge Dredd</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>In a dystopian future, Dredd, the most famous judge (a cop with instant field judiciary powers) is convicted for a crime he did not commit while his murderous counterpart escapes.</t>
+          <t>After learning that a boy their age has been accidentally killed near their rural homes, four Oregon boys decide to go see the body. On the way, Gordie,  Vern, Chris and Teddy encounter a mean junk man and a marsh full of leeches, as they also learn more about one another and their very different home lives. Just a lark at first, the boys' adventure evolves into a defining event in their lives.</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>318.745</v>
+        <v>271.314</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>1995-06-30</t>
+          <t>1986-08-08</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Judge Dredd</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="J146" t="b">
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>5.793</v>
+        <v>7.851</v>
       </c>
       <c r="L146" t="n">
-        <v>2298</v>
+        <v>5611</v>
       </c>
     </row>
     <row r="147">
@@ -7751,11 +7751,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[12, 18, 10751, 16]</t>
+          <t>[53, 28, 878]</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>420818</v>
+        <v>766507</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -7764,35 +7764,35 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>The Lion King</t>
+          <t>Prey</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Simba idolizes his father, King Mufasa, and takes to heart his own royal destiny. But not everyone in the kingdom celebrates the new cub's arrival. Scar, Mufasa's brother—and former heir to the throne—has plans of his own. The battle for Pride Rock is ravaged with betrayal, tragedy and drama, ultimately resulting in Simba's exile. With help from a curious pair of newfound friends, Simba will have to figure out how to grow up and take back what is rightfully his.</t>
+          <t>When danger threatens her camp, the fierce and highly skilled Comanche warrior Naru sets out to protect her people. But the prey she stalks turns out to be a highly evolved alien predator with a technically advanced arsenal.</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>261.982</v>
+        <v>254.839</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2019-07-12</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>The Lion King</t>
+          <t>Prey</t>
         </is>
       </c>
       <c r="J147" t="b">
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>7.115</v>
+        <v>7.7</v>
       </c>
       <c r="L147" t="n">
-        <v>9665</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="148">
@@ -7801,11 +7801,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[18, 53, 80]</t>
+          <t>[27, 28]</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1422</v>
+        <v>36647</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -7814,35 +7814,35 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>The Departed</t>
+          <t>Blade</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>To take down South Boston's Irish Mafia, the police send in one of their own to infiltrate the underworld, not realizing the syndicate has done likewise. While an undercover cop curries favor with the mob kingpin, a career criminal rises through the police ranks. But both sides soon discover there's a mole among them.</t>
+          <t>The Daywalker known as "Blade" - a half-vampire, half-mortal man - becomes the protector of humanity against an underground army of vampires.</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>227.661</v>
+        <v>252.152</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2006-10-04</t>
+          <t>1998-08-21</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>The Departed</t>
+          <t>Blade</t>
         </is>
       </c>
       <c r="J148" t="b">
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>8.167999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="L148" t="n">
-        <v>14389</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="149">
@@ -7851,11 +7851,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>[36, 10752, 10749]</t>
+          <t>[878, 27, 28]</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>753342</v>
+        <v>9348</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -7864,35 +7864,35 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Napoleon</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>An epic that details the checkered rise and fall of French Emperor Napoleon Bonaparte and his relentless journey to power through the prism of his addictive, volatile relationship with his wife, Josephine.</t>
+          <t>In 1993, the Search for Extra Terrestrial Intelligence Project receives a transmission detailing an alien DNA structure, along with instructions on how to splice it with human DNA. The result is Sil, a sensual but deadly creature who can change from a beautiful woman to an armour-plated killing machine in the blink of an eye.</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>210.533</v>
+        <v>233.802</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
+          <t>1995-07-07</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Napoleon</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="J149" t="b">
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>6.462</v>
+        <v>6</v>
       </c>
       <c r="L149" t="n">
-        <v>2050</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="150">
@@ -7901,11 +7901,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>[878, 28, 80]</t>
+          <t>[28, 12, 878, 18]</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>932420</v>
+        <v>315635</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -7914,35 +7914,35 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Code 8 Part II</t>
+          <t>Spider-Man: Homecoming</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>In a world where superpowered people are heavily policed by robots, an ex-con teams up with a drug lord he despises to protect a teen from a corrupt cop.</t>
+          <t>Following the events of Captain America: Civil War, Peter Parker, with the help of his mentor Tony Stark, tries to balance his life as an ordinary high school student in Queens, New York City, with fighting crime as his superhero alter ego Spider-Man as a new threat, the Vulture, emerges.</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>234.077</v>
+        <v>259.238</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2017-07-05</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Code 8 Part II</t>
+          <t>Spider-Man: Homecoming</t>
         </is>
       </c>
       <c r="J150" t="b">
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>6.429</v>
+        <v>7.337</v>
       </c>
       <c r="L150" t="n">
-        <v>445</v>
+        <v>21178</v>
       </c>
     </row>
     <row r="151">
@@ -7951,11 +7951,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>[53, 27]</t>
+          <t>[28, 12, 878]</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1127175</v>
+        <v>634649</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -7964,35 +7964,35 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Mercy Falls</t>
+          <t>Spider-Man: No Way Home</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>A group of friends set off into the Scottish Highlands in search of a long lost cabin. Once far from civilization, an unforeseen tragedy befalls the group and one bad decision leads to suspicion, betrayal and murder.</t>
+          <t>Peter Parker is unmasked and no longer able to separate his normal life from the high-stakes of being a super-hero. When he asks for help from Doctor Strange the stakes become even more dangerous, forcing him to discover what it truly means to be Spider-Man.</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>206.08</v>
+        <v>263.698</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2021-12-15</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Mercy Falls</t>
+          <t>Spider-Man: No Way Home</t>
         </is>
       </c>
       <c r="J151" t="b">
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>5.95</v>
+        <v>7.967</v>
       </c>
       <c r="L151" t="n">
-        <v>10</v>
+        <v>19340</v>
       </c>
     </row>
     <row r="152">
@@ -8001,11 +8001,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>[28, 80, 18]</t>
+          <t>[27, 35]</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>111</v>
+        <v>16288</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -8014,35 +8014,35 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Scarface</t>
+          <t>Creepshow 2</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>After getting a green card in exchange for assassinating a Cuban government official, Tony Montana stakes a claim on the drug trade in Miami. Viciously murdering anyone who stands in his way, Tony eventually becomes the biggest drug lord in the state, controlling nearly all the cocaine that comes through Miami. But increased pressure from the police, wars with Colombian drug cartels and his own drug-fueled paranoia serve to fuel the flames of his eventual downfall.</t>
+          <t>The rotting Creep himself is back with three new gruesome tales of horror that will make your skin crawl; a cigar store wooden Indian comes to life to avenge the store owner's brutal murder at the hands of three punks in "Old Chief Wood'nhead." The chills continue with "The Hitchhiker," The chilling tale of a woman who keeps running into, and over, the same mutilated man on a lonely road.</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>317.981</v>
+        <v>175.613</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>1983-12-09</t>
+          <t>1987-05-01</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Scarface</t>
+          <t>Creepshow 2</t>
         </is>
       </c>
       <c r="J152" t="b">
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>8.167999999999999</v>
+        <v>6.22</v>
       </c>
       <c r="L152" t="n">
-        <v>11322</v>
+        <v>526</v>
       </c>
     </row>
     <row r="153">
@@ -8051,11 +8051,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[28, 53]</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>480530</v>
+        <v>849509</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -8064,35 +8064,35 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Creed II</t>
+          <t>Jade</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Between personal obligations and training for his next big fight against an opponent with ties to his family's past, Adonis Creed is up against the challenge of his life.</t>
+          <t>Jade presents the story of a woman who comes between a powerful businessman and a gang leader in their search for a hard drive that could damage the operations of Interpol. Despite grieving for the brother she accidentally killed, the woman is required to use her unique set of skills to retrieve the drive and protect her brother's unborn child being carried by another woman.</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>232.64</v>
+        <v>242.18</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2018-11-21</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Creed II</t>
+          <t>Jade</t>
         </is>
       </c>
       <c r="J153" t="b">
         <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>7.023</v>
+        <v>5.842</v>
       </c>
       <c r="L153" t="n">
-        <v>5222</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154">
@@ -8101,11 +8101,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>[27, 35]</t>
+          <t>[28, 12, 878]</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>16281</v>
+        <v>667538</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -8114,35 +8114,35 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Creepshow</t>
+          <t>Transformers: Rise of the Beasts</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Five tales in the style of classic '50s horror comics, involving a murdered man emerging from the grave, a meteor's ooze that makes everything grow, a snack for a crated creature, a scheming husband, and a malevolent millionaire with an insect phobia.</t>
+          <t>When a new threat capable of destroying the entire planet emerges, Optimus Prime and the Autobots must team up with a powerful faction known as the Maximals. With the fate of humanity hanging in the balance, humans Noah and Elena will do whatever it takes to help the Transformers as they engage in the ultimate battle to save Earth.</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>279.056</v>
+        <v>219.158</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>1982-11-10</t>
+          <t>2023-06-06</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Creepshow</t>
+          <t>Transformers: Rise of the Beasts</t>
         </is>
       </c>
       <c r="J154" t="b">
         <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>6.93</v>
+        <v>7.341</v>
       </c>
       <c r="L154" t="n">
-        <v>958</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="155">
@@ -8151,11 +8151,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>[53, 35, 80]</t>
+          <t>[28, 53]</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>804150</v>
+        <v>615457</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -8164,35 +8164,35 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Cocaine Bear</t>
+          <t>Nobody</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Inspired by a true story, an oddball group of cops, criminals, tourists and teens converge in a Georgia forest where a 500-pound black bear goes on a murderous rampage after unintentionally ingesting cocaine.</t>
+          <t>Hutch Mansell, a suburban dad, overlooked husband, nothing neighbor — a "nobody." When two thieves break into his home one night, Hutch's unknown long-simmering rage is ignited and propels him on a brutal path that will uncover dark secrets he fought to leave behind.</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>188.778</v>
+        <v>237.866</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2023-02-22</t>
+          <t>2021-02-26</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Cocaine Bear</t>
+          <t>Nobody</t>
         </is>
       </c>
       <c r="J155" t="b">
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>6.097</v>
+        <v>7.971</v>
       </c>
       <c r="L155" t="n">
-        <v>1829</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="156">
@@ -8201,11 +8201,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>[27, 28]</t>
+          <t>[27]</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>36647</v>
+        <v>439079</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -8214,35 +8214,35 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Blade</t>
+          <t>The Nun</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>The Daywalker known as "Blade" - a half-vampire, half-mortal man - becomes the protector of humanity against an underground army of vampires.</t>
+          <t>A priest with a haunted past and a novice on the threshold of her final vows are sent by the Vatican to investigate the death of a young nun in Romania and confront a malevolent force in the form of a demonic nun.</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>259.34</v>
+        <v>257.867</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>1998-08-21</t>
+          <t>2018-09-05</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Blade</t>
+          <t>The Nun</t>
         </is>
       </c>
       <c r="J156" t="b">
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>6.782</v>
+        <v>5.891</v>
       </c>
       <c r="L156" t="n">
-        <v>5725</v>
+        <v>6424</v>
       </c>
     </row>
     <row r="157">
@@ -8251,11 +8251,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[80, 36, 18]</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>439079</v>
+        <v>466420</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -8264,35 +8264,35 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>The Nun</t>
+          <t>Killers of the Flower Moon</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>A priest with a haunted past and a novice on the threshold of her final vows are sent by the Vatican to investigate the death of a young nun in Romania and confront a malevolent force in the form of a demonic nun.</t>
+          <t>When oil is discovered in 1920s Oklahoma under Osage Nation land, the Osage people are murdered one by one—until the FBI steps in to unravel the mystery.</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>254.057</v>
+        <v>162.837</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2018-09-05</t>
+          <t>2023-10-18</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>The Nun</t>
+          <t>Killers of the Flower Moon</t>
         </is>
       </c>
       <c r="J157" t="b">
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>5.891</v>
+        <v>7.495</v>
       </c>
       <c r="L157" t="n">
-        <v>6423</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="158">
@@ -8301,11 +8301,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>[28, 878, 53, 12, 14]</t>
+          <t>[28, 18, 10752, 10749, 53]</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>399566</v>
+        <v>369885</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -8314,35 +8314,35 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Godzilla vs. Kong</t>
+          <t>Allied</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>In a time when monsters walk the Earth, humanity’s fight for its future sets Godzilla and Kong on a collision course that will see the two most powerful forces of nature on the planet collide in a spectacular battle for the ages.</t>
+          <t>In 1942, an intelligence officer in North Africa encounters a female French Resistance fighter on a deadly mission behind enemy lines. When they reunite in London, their relationship is tested by the pressures of war.</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>264.293</v>
+        <v>239.829</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2021-03-24</t>
+          <t>2016-11-17</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Godzilla vs. Kong</t>
+          <t>Allied</t>
         </is>
       </c>
       <c r="J158" t="b">
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>7.619</v>
+        <v>6.8</v>
       </c>
       <c r="L158" t="n">
-        <v>9644</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="159">
@@ -8351,11 +8351,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>[80, 9648, 53]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>807</v>
+        <v>1049948</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -8364,35 +8364,35 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Se7en</t>
+          <t>Vikings: Battle of Heirs</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Two homicide detectives are on a desperate hunt for a serial killer whose crimes are based on the "seven deadly sins" in this dark and haunting film that takes viewers from the tortured remains of one victim to the next. The seasoned Det. Sommerset researches each sin in an effort to get inside the killer's mind, while his novice partner, Mills, scoffs at his efforts to unravel the case.</t>
+          <t>A young Viking must come to terms with the realization that he may be the King's son, who was switched at birth, but not before others try to take his rightful place.</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>263.522</v>
+        <v>237.933</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>1995-09-22</t>
+          <t>2023-04-28</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Se7en</t>
+          <t>Vikings: Battle of Heirs</t>
         </is>
       </c>
       <c r="J159" t="b">
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>8.372999999999999</v>
+        <v>5.839</v>
       </c>
       <c r="L159" t="n">
-        <v>20282</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160">
@@ -8401,11 +8401,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>[28, 35, 14]</t>
+          <t>[16, 35, 10751]</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>287947</v>
+        <v>8920</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -8414,35 +8414,35 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Shazam!</t>
+          <t>Garfield</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>A boy is given the ability to become an adult superhero in times of need with a single magic word.</t>
+          <t>Garfield, the fat, lazy, lasagna lover, has everything a cat could want. But when Jon, in an effort to impress the Liz - the vet and an old high-school crush - adopts a dog named Odie and brings him home, Garfield gets the one thing he doesn't want. Competition.</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>273.1</v>
+        <v>295.017</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2019-03-29</t>
+          <t>2004-06-10</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Shazam!</t>
+          <t>Garfield</t>
         </is>
       </c>
       <c r="J160" t="b">
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>7.017</v>
+        <v>5.695</v>
       </c>
       <c r="L160" t="n">
-        <v>9184</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="161">
@@ -8451,11 +8451,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>[10749, 35]</t>
+          <t>[878, 18, 28]</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>621</v>
+        <v>848326</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -8464,35 +8464,35 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Grease</t>
+          <t>Rebel Moon - Part One: A Child of Fire</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Australian good girl Sandy and greaser Danny fell in love over the summer. But when they unexpectedly discover they're now in the same high school, will they be able to rekindle their romance despite their eccentric friends?</t>
+          <t>When the ruthless forces of the Motherworld threaten a quiet farming village on a distant moon, a mysterious outsider becomes its best hope for survival.</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>264.22</v>
+        <v>203.395</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>1978-07-07</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Grease</t>
+          <t>Rebel Moon - Part One: A Child of Fire</t>
         </is>
       </c>
       <c r="J161" t="b">
         <v>0</v>
       </c>
       <c r="K161" t="n">
-        <v>7.4</v>
+        <v>6.374</v>
       </c>
       <c r="L161" t="n">
-        <v>6979</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="162">
@@ -8501,11 +8501,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>[18, 878, 10752]</t>
+          <t>[12, 878, 28]</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>281338</v>
+        <v>299534</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -8514,35 +8514,35 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>War for the Planet of the Apes</t>
+          <t>Avengers: Endgame</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Caesar and his apes are forced into a deadly conflict with an army of humans led by a ruthless Colonel. After the apes suffer unimaginable losses, Caesar wrestles with his darker instincts and begins his own mythic quest to avenge his kind. As the journey finally brings them face to face, Caesar and the Colonel are pitted against each other in an epic battle that will determine the fate of both their species and the future of the planet.</t>
+          <t>After the devastating events of Avengers: Infinity War, the universe is in ruins due to the efforts of the Mad Titan, Thanos. With the help of remaining allies, the Avengers must assemble once more in order to undo Thanos' actions and restore order to the universe once and for all, no matter what consequences may be in store.</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>284.698</v>
+        <v>256.579</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2017-07-11</t>
+          <t>2019-04-24</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>War for the Planet of the Apes</t>
+          <t>Avengers: Endgame</t>
         </is>
       </c>
       <c r="J162" t="b">
         <v>0</v>
       </c>
       <c r="K162" t="n">
-        <v>7.176</v>
+        <v>8.254</v>
       </c>
       <c r="L162" t="n">
-        <v>8419</v>
+        <v>24819</v>
       </c>
     </row>
     <row r="163">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>[28, 53, 12]</t>
+          <t>[28, 35]</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>447200</v>
+        <v>897087</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -8564,35 +8564,35 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Skyscraper</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Framed and on the run, a former FBI agent must save his family from a blazing fire in the world's tallest building.</t>
+          <t>An ex-special forces operative takes a job to provide security for a journalist as she interviews a dictator, but a military coup breaks out in the middle of the interview, they are forced to escape into the jungle where they must survive.</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>270.621</v>
+        <v>228.451</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2018-07-11</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Skyscraper</t>
+          <t>Freelance</t>
         </is>
       </c>
       <c r="J163" t="b">
         <v>0</v>
       </c>
       <c r="K163" t="n">
-        <v>6.315</v>
+        <v>6.551</v>
       </c>
       <c r="L163" t="n">
-        <v>4791</v>
+        <v>757</v>
       </c>
     </row>
     <row r="164">
@@ -8601,48 +8601,48 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>[35]</t>
+          <t>[878, 12, 28]</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1229913</v>
+        <v>76600</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>en</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>El Roomie</t>
+          <t>Avatar: The Way of Water</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Vivi is a young writer who is forced to find a roommate to pay the mortgage on her apartment. What she does not suspect is that Roy, the supposed perfect partner she found, has a peculiar lifestyle: he never pays rent.</t>
+          <t>Set more than a decade after the events of the first film, learn the story of the Sully family (Jake, Neytiri, and their kids), the trouble that follows them, the lengths they go to keep each other safe, the battles they fight to stay alive, and the tragedies they endure.</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>236.036</v>
+        <v>221.051</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2022-12-14</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>The Roommate</t>
+          <t>Avatar: The Way of Water</t>
         </is>
       </c>
       <c r="J164" t="b">
         <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>7.375</v>
+        <v>7.6</v>
       </c>
       <c r="L164" t="n">
-        <v>52</v>
+        <v>11235</v>
       </c>
     </row>
     <row r="165">
@@ -8651,11 +8651,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>[27, 53]</t>
+          <t>[80, 18, 9648, 53]</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>948</v>
+        <v>829</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -8664,35 +8664,35 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Halloween</t>
+          <t>Chinatown</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Fifteen years after murdering his sister on Halloween Night 1963, Michael Myers escapes from a mental hospital and returns to the small town of Haddonfield, Illinois to kill again.</t>
+          <t>Private eye Jake Gittes lives off of the murky moral climate of sunbaked, pre-World War II Southern California. Hired by a beautiful socialite to investigate her husband's extra-marital affair, Gittes is swept into a maelstrom of double dealings and deadly deceits, uncovering a web of personal and political scandals that come crashing together.</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>266.733</v>
+        <v>245.499</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>1978-10-24</t>
+          <t>1974-06-20</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Halloween</t>
+          <t>Chinatown</t>
         </is>
       </c>
       <c r="J165" t="b">
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>7.554</v>
+        <v>7.9</v>
       </c>
       <c r="L165" t="n">
-        <v>5315</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="166">
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>248.184</v>
+        <v>263.978</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>7.485</v>
       </c>
       <c r="L166" t="n">
-        <v>8582</v>
+        <v>8584</v>
       </c>
     </row>
     <row r="167">
@@ -8751,48 +8751,48 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>[16, 12, 14]</t>
+          <t>[27, 53]</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>508883</v>
+        <v>1117321</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>en</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>君たちはどう生きるか</t>
+          <t>You'll Never Find Me</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>While the Second World War rages, the teenage Mahito, haunted by his mother's tragic death, is relocated from Tokyo to the serene rural home of his new stepmother Natsuko, a woman who bears a striking resemblance to the boy's mother. As he tries to adjust, this strange new world grows even stranger following the appearance of a persistent gray heron, who perplexes and bedevils Mahito, dubbing him the "long-awaited one."</t>
+          <t>Patrick, a strange and lonely resident, lives in a mobile home at the back of an isolated caravan park. After a violent thunderstorm erupts, a mysterious young woman appears at his door, seeking shelter from the weather. The longer the night wears on and the more the young woman discovers about Patrick, the more difficult she finds it to leave. Soon she begins to question Patrick’s intentions, while Patrick begins to question his own grip on reality...</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>224.355</v>
+        <v>222.074</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>The Boy and the Heron</t>
+          <t>You'll Never Find Me</t>
         </is>
       </c>
       <c r="J167" t="b">
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>7.419</v>
+        <v>6.208</v>
       </c>
       <c r="L167" t="n">
-        <v>1198</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168">
@@ -8801,11 +8801,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>[16, 35, 10751]</t>
+          <t>[28, 53, 80]</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>8920</v>
+        <v>560016</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -8814,35 +8814,35 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Garfield</t>
+          <t>Monkey Man</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Garfield, the fat, lazy, lasagna lover, has everything a cat could want. But when Jon, in an effort to impress the Liz - the vet and an old high-school crush - adopts a dog named Odie and brings him home, Garfield gets the one thing he doesn't want. Competition.</t>
+          <t>Kid is an anonymous young man who ekes out a meager living in an underground fight club where, night after night, wearing a gorilla mask, he is beaten bloody by more popular fighters for cash. After years of suppressed rage, Kid discovers a way to infiltrate the enclave of the city’s sinister elite. As his childhood trauma boils over, his mysteriously scarred hands unleash an explosive campaign of retribution to settle the score with the men who took everything from him.</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>251.776</v>
+        <v>210.112</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2004-06-10</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Garfield</t>
+          <t>Monkey Man</t>
         </is>
       </c>
       <c r="J168" t="b">
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>5.694</v>
+        <v>7.175</v>
       </c>
       <c r="L168" t="n">
-        <v>3816</v>
+        <v>295</v>
       </c>
     </row>
     <row r="169">
@@ -8851,11 +8851,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>[28, 53]</t>
+          <t>[27, 53, 12]</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>615457</v>
+        <v>578</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -8864,35 +8864,35 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Nobody</t>
+          <t>Jaws</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Hutch Mansell, a suburban dad, overlooked husband, nothing neighbor — a "nobody." When two thieves break into his home one night, Hutch's unknown long-simmering rage is ignited and propels him on a brutal path that will uncover dark secrets he fought to leave behind.</t>
+          <t>When the seaside community of Amity finds itself under attack by a dangerous great white shark, the town's chief of police, a young marine biologist, and a grizzled hunter embark on a desperate quest to destroy the beast before it strikes again.</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>255.665</v>
+        <v>250.937</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2021-02-26</t>
+          <t>1975-06-20</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Nobody</t>
+          <t>Jaws</t>
         </is>
       </c>
       <c r="J169" t="b">
         <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>7.971</v>
+        <v>7.7</v>
       </c>
       <c r="L169" t="n">
-        <v>6689</v>
+        <v>9980</v>
       </c>
     </row>
     <row r="170">
@@ -8901,11 +8901,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>[28, 18, 10752, 10749, 53]</t>
+          <t>[28, 12, 35]</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>369885</v>
+        <v>848538</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -8914,35 +8914,35 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Allied</t>
+          <t>Argylle</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>In 1942, an intelligence officer in North Africa encounters a female French Resistance fighter on a deadly mission behind enemy lines. When they reunite in London, their relationship is tested by the pressures of war.</t>
+          <t>When the plots of reclusive author Elly Conway's fictional espionage novels begin to mirror the covert actions of a real-life spy organization, quiet evenings at home become a thing of the past. Accompanied by her cat Alfie and Aiden, a cat-allergic spy, Elly races across the world to stay one step ahead of the killers as the line between Conway's fictional world and her real one begins to blur.</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>252.15</v>
+        <v>198.643</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2016-11-17</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Allied</t>
+          <t>Argylle</t>
         </is>
       </c>
       <c r="J170" t="b">
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>6.79</v>
+        <v>6.153</v>
       </c>
       <c r="L170" t="n">
-        <v>4398</v>
+        <v>968</v>
       </c>
     </row>
     <row r="171">
@@ -8951,11 +8951,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>[35, 878, 28]</t>
+          <t>[27]</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>533535</v>
+        <v>474350</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -8964,35 +8964,35 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Deadpool &amp; Wolverine</t>
+          <t>It Chapter Two</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Third entry in the "Deadpool" franchise. Plot TBA.</t>
+          <t>27 years after overcoming the malevolent supernatural entity Pennywise, the former members of the Losers' Club, who have grown up and moved away from Derry, are brought back together by a devastating phone call.</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>267.403</v>
+        <v>241.894</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Deadpool &amp; Wolverine</t>
+          <t>It Chapter Two</t>
         </is>
       </c>
       <c r="J171" t="b">
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>6.844</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="172">
@@ -9001,11 +9001,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>[12, 28]</t>
+          <t>[28, 35, 12]</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>893334</v>
+        <v>436969</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -9014,35 +9014,35 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>The Adventures of Maid Marian</t>
+          <t>The Suicide Squad</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Everyone knows the stories of Robin Hood and Maid Marian, but this the story of what happens next. Out of the shadows, a legend returns to save her people from the tyranny of the disgraced Sheriff of Nottingham. Robin Hood remains at war and Marian must put her own combat skills to the test, creating a new tale that will be heralded throughout the ages.</t>
+          <t>Supervillains Harley Quinn, Bloodsport, Peacemaker and a collection of nutty cons at Belle Reve prison join the super-secret, super-shady Task Force X as they are dropped off at the remote, enemy-infused island of Corto Maltese.</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>209.259</v>
+        <v>213.312</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>The Adventures of Maid Marian</t>
+          <t>The Suicide Squad</t>
         </is>
       </c>
       <c r="J172" t="b">
         <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>5.2</v>
+        <v>7.526</v>
       </c>
       <c r="L172" t="n">
-        <v>15</v>
+        <v>8197</v>
       </c>
     </row>
     <row r="173">
@@ -9051,11 +9051,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[28, 12, 878]</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>873972</v>
+        <v>670292</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -9064,35 +9064,35 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Hunters</t>
+          <t>The Creator</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>As John T. Wrecker continues his task of protecting a group of refugees from a virus, the threat of something new and even more dangerous grows ever closer in the form of monstrous mutants.</t>
+          <t>Amid a future war between the human race and the forces of artificial intelligence, a hardened ex-special forces agent grieving the disappearance of his wife, is recruited to hunt down and kill the Creator, the elusive architect of advanced AI who has developed a mysterious weapon with the power to end the war—and mankind itself.</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>217.504</v>
+        <v>224.641</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2021-09-13</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Hunters</t>
+          <t>The Creator</t>
         </is>
       </c>
       <c r="J173" t="b">
         <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>6.222</v>
+        <v>7.099</v>
       </c>
       <c r="L173" t="n">
-        <v>18</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="174">
@@ -9101,48 +9101,48 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>[80, 18]</t>
+          <t>[18, 878]</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>de</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>Metropolis</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>After learning that a boy their age has been accidentally killed near their rural homes, four Oregon boys decide to go see the body. On the way, Gordie,  Vern, Chris and Teddy encounter a mean junk man and a marsh full of leeches, as they also learn more about one another and their very different home lives. Just a lark at first, the boys' adventure evolves into a defining event in their lives.</t>
+          <t>In a futuristic city sharply divided between the rich and the poor, the son of the city's mastermind meets a prophet who predicts the coming of a savior to mediate their differences.</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>260.428</v>
+        <v>218.727</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>1986-08-08</t>
+          <t>1927-02-06</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>Metropolis</t>
         </is>
       </c>
       <c r="J174" t="b">
         <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>7.851</v>
+        <v>8.138</v>
       </c>
       <c r="L174" t="n">
-        <v>5609</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="175">
@@ -9151,11 +9151,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>[18, 28]</t>
+          <t>[12, 14]</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>677179</v>
+        <v>671</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -9164,35 +9164,35 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Creed III</t>
+          <t>Harry Potter and the Philosopher's Stone</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>After dominating the boxing world, Adonis Creed has thrived in his career and family life. When a childhood friend and former boxing prodigy, Damian Anderson, resurfaces after serving a long sentence in prison, he is eager to prove that he deserves his shot in the ring. The face-off between former friends is more than just a fight. To settle the score, Adonis must put his future on the line to battle Damian — a fighter with nothing to lose.</t>
+          <t>Harry Potter has lived under the stairs at his aunt and uncle's house his whole life. But on his 11th birthday, he learns he's a powerful wizard—with a place waiting for him at the Hogwarts School of Witchcraft and Wizardry. As he learns to harness his newfound powers with the help of the school's kindly headmaster, Harry uncovers the truth about his parents' deaths—and about the villain who's to blame.</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>205.903</v>
+        <v>184.977</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2001-11-16</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Creed III</t>
+          <t>Harry Potter and the Philosopher's Stone</t>
         </is>
       </c>
       <c r="J175" t="b">
         <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>7.124</v>
+        <v>7.914</v>
       </c>
       <c r="L175" t="n">
-        <v>2337</v>
+        <v>26511</v>
       </c>
     </row>
     <row r="176">
@@ -9201,11 +9201,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>[878, 12, 28]</t>
+          <t>[28, 12, 14]</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>76600</v>
+        <v>572802</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -9214,35 +9214,35 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Avatar: The Way of Water</t>
+          <t>Aquaman and the Lost Kingdom</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Set more than a decade after the events of the first film, learn the story of the Sully family (Jake, Neytiri, and their kids), the trouble that follows them, the lengths they go to keep each other safe, the battles they fight to stay alive, and the tragedies they endure.</t>
+          <t>Black Manta seeks revenge on Aquaman for his father's death. Wielding the Black Trident's power, he becomes a formidable foe. To defend Atlantis, Aquaman forges an alliance with his imprisoned brother. They must protect the kingdom.</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>250.089</v>
+        <v>248.354</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Avatar: The Way of Water</t>
+          <t>Aquaman and the Lost Kingdom</t>
         </is>
       </c>
       <c r="J176" t="b">
         <v>0</v>
       </c>
       <c r="K176" t="n">
-        <v>7.624</v>
+        <v>6.78</v>
       </c>
       <c r="L176" t="n">
-        <v>11232</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="177">
@@ -9251,48 +9251,48 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>[18, 878]</t>
+          <t>[18, 10749]</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>62215</v>
+        <v>1010581</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>es</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Melancholia</t>
+          <t>Culpa mía</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Two sisters find their already strained relationship challenged as a mysterious new planet threatens to collide with Earth.</t>
+          <t>Noah must leave her city, boyfriend, and friends to move into William Leister's mansion, the flashy and wealthy husband of her mother Rafaela. As a proud and independent 17 year old, Noah resists living in a mansion surrounded by luxury. However, it is there where she meets Nick, her new stepbrother, and the clash of their strong personalities becomes evident from the very beginning.</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>218.276</v>
+        <v>234.253</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2011-05-26</t>
+          <t>2023-06-08</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Melancholia</t>
+          <t>My Fault</t>
         </is>
       </c>
       <c r="J177" t="b">
         <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>7.195</v>
+        <v>8</v>
       </c>
       <c r="L177" t="n">
-        <v>3356</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="178">
@@ -9301,11 +9301,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>[27, 53]</t>
+          <t>[28, 12, 878]</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>951491</v>
+        <v>68721</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -9314,35 +9314,35 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Saw X</t>
+          <t>Iron Man 3</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Between the events of 'Saw' and 'Saw II', a sick and desperate John Kramer travels to Mexico for a risky and experimental medical procedure in hopes of a miracle cure for his cancer, only to discover the entire operation is a scam to defraud the most vulnerable. Armed with a newfound purpose, the infamous serial killer returns to his work, turning the tables on the con artists in his signature visceral way through devious, deranged, and ingenious traps.</t>
+          <t>When Tony Stark's world is torn apart by a formidable terrorist called the Mandarin, he starts an odyssey of rebuilding and retribution.</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>228.971</v>
+        <v>221.891</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2013-04-18</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Saw X</t>
+          <t>Iron Man 3</t>
         </is>
       </c>
       <c r="J178" t="b">
         <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>7.287</v>
+        <v>6.927</v>
       </c>
       <c r="L178" t="n">
-        <v>1674</v>
+        <v>21646</v>
       </c>
     </row>
     <row r="179">
@@ -9351,11 +9351,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>[12, 878, 28]</t>
+          <t>[27]</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>299534</v>
+        <v>14564</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -9364,35 +9364,35 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Avengers: Endgame</t>
+          <t>Rings</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>After the devastating events of Avengers: Infinity War, the universe is in ruins due to the efforts of the Mad Titan, Thanos. With the help of remaining allies, the Avengers must assemble once more in order to undo Thanos' actions and restore order to the universe once and for all, no matter what consequences may be in store.</t>
+          <t>Julia becomes worried about her boyfriend Holt when he explores the dark urban legend of a mysterious videotape said to kill the watcher seven days after viewing. She sacrifices herself to save her boyfriend and in doing so makes a horrifying discovery: there is a "movie within the movie" that no one has ever seen before.</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>250.819</v>
+        <v>238.477</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2019-04-24</t>
+          <t>2017-02-01</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Avengers: Endgame</t>
+          <t>Rings</t>
         </is>
       </c>
       <c r="J179" t="b">
         <v>0</v>
       </c>
       <c r="K179" t="n">
-        <v>8.254</v>
+        <v>5</v>
       </c>
       <c r="L179" t="n">
-        <v>24813</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="180">
@@ -9401,11 +9401,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>[878, 27, 28]</t>
+          <t>[53, 28, 18, 878]</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>9348</v>
+        <v>61791</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -9414,35 +9414,35 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Rise of the Planet of the Apes</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>In 1993, the Search for Extra Terrestrial Intelligence Project receives a transmission detailing an alien DNA structure, along with instructions on how to splice it with human DNA. The result is Sil, a sensual but deadly creature who can change from a beautiful woman to an armour-plated killing machine in the blink of an eye.</t>
+          <t>A highly intelligent chimpanzee named Caesar has been living a peaceful suburban life ever since he was born. But when he gets taken to a cruel primate facility, Caesar decides to revolt against those who have harmed him.</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>258.679</v>
+        <v>204.738</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>1995-07-07</t>
+          <t>2011-08-03</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Rise of the Planet of the Apes</t>
         </is>
       </c>
       <c r="J180" t="b">
         <v>0</v>
       </c>
       <c r="K180" t="n">
-        <v>6</v>
+        <v>7.304</v>
       </c>
       <c r="L180" t="n">
-        <v>1552</v>
+        <v>11255</v>
       </c>
     </row>
     <row r="181">
@@ -9451,48 +9451,48 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[35]</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>14564</v>
+        <v>1229913</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>es</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Rings</t>
+          <t>El Roomie</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Julia becomes worried about her boyfriend Holt when he explores the dark urban legend of a mysterious videotape said to kill the watcher seven days after viewing. She sacrifices herself to save her boyfriend and in doing so makes a horrifying discovery: there is a "movie within the movie" that no one has ever seen before.</t>
+          <t>Vivi is a young writer who is forced to find a roommate to pay the mortgage on her apartment. What she does not suspect is that Roy, the supposed perfect partner she found, has a peculiar lifestyle: he never pays rent.</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>238.141</v>
+        <v>200.429</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2017-02-01</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Rings</t>
+          <t>The Roommate</t>
         </is>
       </c>
       <c r="J181" t="b">
         <v>0</v>
       </c>
       <c r="K181" t="n">
-        <v>5</v>
+        <v>7.425</v>
       </c>
       <c r="L181" t="n">
-        <v>2419</v>
+        <v>53</v>
       </c>
     </row>
     <row r="182">
@@ -9501,11 +9501,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[28, 12, 878]</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>14564</v>
+        <v>497698</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -9514,35 +9514,35 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Rings</t>
+          <t>Black Widow</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Julia becomes worried about her boyfriend Holt when he explores the dark urban legend of a mysterious videotape said to kill the watcher seven days after viewing. She sacrifices herself to save her boyfriend and in doing so makes a horrifying discovery: there is a "movie within the movie" that no one has ever seen before.</t>
+          <t>Natasha Romanoff, also known as Black Widow, confronts the darker parts of her ledger when a dangerous conspiracy with ties to her past arises. Pursued by a force that will stop at nothing to bring her down, Natasha must deal with her history as a spy and the broken relationships left in her wake long before she became an Avenger.</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>238.141</v>
+        <v>248.261</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2017-02-01</t>
+          <t>2021-07-07</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Rings</t>
+          <t>Black Widow</t>
         </is>
       </c>
       <c r="J182" t="b">
         <v>0</v>
       </c>
       <c r="K182" t="n">
-        <v>5</v>
+        <v>7.259</v>
       </c>
       <c r="L182" t="n">
-        <v>2419</v>
+        <v>9772</v>
       </c>
     </row>
     <row r="183">
@@ -9551,11 +9551,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>[80, 27, 9648]</t>
+          <t>[878, 28, 80]</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>4232</v>
+        <v>932420</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -9564,35 +9564,35 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Scream</t>
+          <t>Code 8 Part II</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>After a series of mysterious deaths befalls their small town, an offbeat group of friends led by Sidney Prescott become the target of a masked killer.</t>
+          <t>In a world where superpowered people are heavily policed by robots, an ex-con teams up with a drug lord he despises to protect a teen from a corrupt cop.</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>215.246</v>
+        <v>217.657</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>1996-12-20</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Scream</t>
+          <t>Code 8 Part II</t>
         </is>
       </c>
       <c r="J183" t="b">
         <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>7.421</v>
+        <v>6.437</v>
       </c>
       <c r="L183" t="n">
-        <v>6623</v>
+        <v>446</v>
       </c>
     </row>
     <row r="184">
@@ -9601,11 +9601,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>[28, 12, 878, 18]</t>
+          <t>[16, 12, 10751, 35]</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>315635</v>
+        <v>862</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -9614,35 +9614,35 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Spider-Man: Homecoming</t>
+          <t>Toy Story</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Following the events of Captain America: Civil War, Peter Parker, with the help of his mentor Tony Stark, tries to balance his life as an ordinary high school student in Queens, New York City, with fighting crime as his superhero alter ego Spider-Man as a new threat, the Vulture, emerges.</t>
+          <t>Led by Woody, Andy's toys live happily in his room until Andy's birthday brings Buzz Lightyear onto the scene. Afraid of losing his place in Andy's heart, Woody plots against Buzz. But when circumstances separate Buzz and Woody from their owner, the duo eventually learns to put aside their differences.</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>258.216</v>
+        <v>222.972</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2017-07-05</t>
+          <t>1995-10-30</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Spider-Man: Homecoming</t>
+          <t>Toy Story</t>
         </is>
       </c>
       <c r="J184" t="b">
         <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>7.336</v>
+        <v>7.973</v>
       </c>
       <c r="L184" t="n">
-        <v>21172</v>
+        <v>17821</v>
       </c>
     </row>
     <row r="185">
@@ -9651,11 +9651,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[18, 28]</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>550</v>
+        <v>480530</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -9664,35 +9664,35 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Fight Club</t>
+          <t>Creed II</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>A ticking-time-bomb insomniac and a slippery soap salesman channel primal male aggression into a shocking new form of therapy. Their concept catches on, with underground "fight clubs" forming in every town, until an eccentric gets in the way and ignites an out-of-control spiral toward oblivion.</t>
+          <t>Between personal obligations and training for his next big fight against an opponent with ties to his family's past, Adonis Creed is up against the challenge of his life.</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>227.314</v>
+        <v>235.404</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>1999-10-15</t>
+          <t>2018-11-21</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Fight Club</t>
+          <t>Creed II</t>
         </is>
       </c>
       <c r="J185" t="b">
         <v>0</v>
       </c>
       <c r="K185" t="n">
-        <v>8.442</v>
+        <v>7.024</v>
       </c>
       <c r="L185" t="n">
-        <v>28448</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="186">
@@ -9701,11 +9701,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>[16, 35, 10751, 14, 10749, 12]</t>
+          <t>[80, 18, 53]</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>976573</v>
+        <v>10155</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -9714,35 +9714,35 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Elemental</t>
+          <t>U Turn</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>In a city where fire, water, land and air residents live together, a fiery young woman and a go-with-the-flow guy will discover something elemental: how much they have in common.</t>
+          <t>When Bobby's car breaks down in the desert while on the run from some of the bookies who have already taken two of his fingers, he becomes trapped in the nearby small town where the people are stranger than anyone he's encountered. After becoming involved with a young married woman, her husband hires Bobby to kill her. Later, she hires Bobby to kill the husband.</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>216.266</v>
+        <v>241.328</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>1997-10-03</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Elemental</t>
+          <t>U Turn</t>
         </is>
       </c>
       <c r="J186" t="b">
         <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>7.656</v>
+        <v>6.638</v>
       </c>
       <c r="L186" t="n">
-        <v>3994</v>
+        <v>694</v>
       </c>
     </row>
     <row r="187">
@@ -9751,11 +9751,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>[18, 878]</t>
+          <t>[9648, 53, 27]</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>301337</v>
+        <v>419430</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -9764,35 +9764,35 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Downsizing</t>
+          <t>Get Out</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>A kindly occupational therapist undergoes a new procedure to be shrunken to four inches tall so that he and his wife can help save the planet and afford a nice lifestyle at the same time.</t>
+          <t>Chris and his girlfriend Rose go upstate to visit her parents for the weekend. At first, Chris reads the family's overly accommodating behavior as nervous attempts to deal with their daughter's interracial relationship, but as the weekend progresses, a series of increasingly disturbing discoveries lead him to a truth that he never could have imagined.</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>263.269</v>
+        <v>228.731</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2017-12-22</t>
+          <t>2017-02-24</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Downsizing</t>
+          <t>Get Out</t>
         </is>
       </c>
       <c r="J187" t="b">
         <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>5.345</v>
+        <v>7.6</v>
       </c>
       <c r="L187" t="n">
-        <v>3654</v>
+        <v>16749</v>
       </c>
     </row>
     <row r="188">
@@ -9801,11 +9801,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>[28, 12, 53]</t>
+          <t>[27, 53]</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>299054</v>
+        <v>951491</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -9814,35 +9814,35 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Expend4bles</t>
+          <t>Saw X</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Armed with every weapon they can get their hands on and the skills to use them, The Expendables are the world’s last line of defense and the team that gets called when all other options are off the table. But new team members with new styles and tactics are going to give “new blood” a whole new meaning.</t>
+          <t>Between the events of 'Saw' and 'Saw II', a sick and desperate John Kramer travels to Mexico for a risky and experimental medical procedure in hopes of a miracle cure for his cancer, only to discover the entire operation is a scam to defraud the most vulnerable. Armed with a newfound purpose, the infamous serial killer returns to his work, turning the tables on the con artists in his signature visceral way through devious, deranged, and ingenious traps.</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>205.885</v>
+        <v>218.435</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Expend4bles</t>
+          <t>Saw X</t>
         </is>
       </c>
       <c r="J188" t="b">
         <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>6.283</v>
+        <v>7.288</v>
       </c>
       <c r="L188" t="n">
-        <v>1307</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="189">
@@ -9851,11 +9851,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>[878, 18, 28]</t>
+          <t>[27, 9648, 53]</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>848326</v>
+        <v>1125311</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -9864,35 +9864,35 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Rebel Moon - Part One: A Child of Fire</t>
+          <t>Imaginary</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>When the ruthless forces of the Motherworld threaten a quiet farming village on a distant moon, a mysterious outsider becomes its best hope for survival.</t>
+          <t>When Jessica moves back into her childhood home with her family, her youngest stepdaughter Alice develops an eerie attachment to a stuffed bear named Chauncey she finds in the basement. Alice starts playing games with Chauncey that begin playful and become increasingly sinister. As Alice’s behavior becomes more and more concerning, Jessica intervenes only to realize Chauncey is much more than the stuffed toy bear she believed him to be.</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>251.704</v>
+        <v>212.573</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Rebel Moon - Part One: A Child of Fire</t>
+          <t>Imaginary</t>
         </is>
       </c>
       <c r="J189" t="b">
         <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>6.373</v>
+        <v>6.299</v>
       </c>
       <c r="L189" t="n">
-        <v>1774</v>
+        <v>259</v>
       </c>
     </row>
     <row r="190">
@@ -9901,11 +9901,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>[878, 28, 53, 12]</t>
+          <t>[35, 18, 10749]</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>87101</v>
+        <v>13</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -9914,35 +9914,35 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Terminator Genisys</t>
+          <t>Forrest Gump</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>The year is 2029. John Connor, leader of the resistance continues the war against the machines. At the Los Angeles offensive, John's fears of the unknown future begin to emerge when TECOM spies reveal a new plot by SkyNet that will attack him from both fronts; past and future, and will ultimately change warfare forever.</t>
+          <t>A man with a low IQ has accomplished great things in his life and been present during significant historic events—in each case, far exceeding what anyone imagined he could do. But despite all he has achieved, his one true love eludes him.</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>214.895</v>
+        <v>227.96</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2015-06-23</t>
+          <t>1994-06-23</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Terminator Genisys</t>
+          <t>Forrest Gump</t>
         </is>
       </c>
       <c r="J190" t="b">
         <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>5.939</v>
+        <v>8.5</v>
       </c>
       <c r="L190" t="n">
-        <v>8137</v>
+        <v>26558</v>
       </c>
     </row>
     <row r="191">
@@ -9951,11 +9951,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>[16, 28, 12, 878]</t>
+          <t>[18, 53, 80]</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>569094</v>
+        <v>1422</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -9964,35 +9964,35 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Spider-Man: Across the Spider-Verse</t>
+          <t>The Departed</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>After reuniting with Gwen Stacy, Brooklyn’s full-time, friendly neighborhood Spider-Man is catapulted across the Multiverse, where he encounters the Spider Society, a team of Spider-People charged with protecting the Multiverse’s very existence. But when the heroes clash on how to handle a new threat, Miles finds himself pitted against the other Spiders and must set out on his own to save those he loves most.</t>
+          <t>To take down South Boston's Irish Mafia, the police send in one of their own to infiltrate the underworld, not realizing the syndicate has done likewise. While an undercover cop curries favor with the mob kingpin, a career criminal rises through the police ranks. But both sides soon discover there's a mole among them.</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>221.019</v>
+        <v>211.901</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2006-10-04</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Spider-Man: Across the Spider-Verse</t>
+          <t>The Departed</t>
         </is>
       </c>
       <c r="J191" t="b">
         <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>8.369</v>
+        <v>8.167999999999999</v>
       </c>
       <c r="L191" t="n">
-        <v>6211</v>
+        <v>14391</v>
       </c>
     </row>
     <row r="192">
@@ -10001,11 +10001,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>[14, 28, 53]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>400106</v>
+        <v>550</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -10014,35 +10014,35 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Fight Club</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>In an alternate present-day where magical creatures live among us, two L.A. cops become embroiled in a prophesied turf battle.</t>
+          <t>A ticking-time-bomb insomniac and a slippery soap salesman channel primal male aggression into a shocking new form of therapy. Their concept catches on, with underground "fight clubs" forming in every town, until an eccentric gets in the way and ignites an out-of-control spiral toward oblivion.</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>208.578</v>
+        <v>209.598</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2017-12-22</t>
+          <t>1999-10-15</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Fight Club</t>
         </is>
       </c>
       <c r="J192" t="b">
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>6.152</v>
+        <v>8.441000000000001</v>
       </c>
       <c r="L192" t="n">
-        <v>5465</v>
+        <v>28454</v>
       </c>
     </row>
     <row r="193">
@@ -10051,11 +10051,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>[28, 27, 35, 53]</t>
+          <t>[14, 53, 28, 12, 27]</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1211483</v>
+        <v>282035</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -10064,35 +10064,35 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Skal - Fight for Survival</t>
+          <t>The Mummy</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>My name's Arthur, a huge Internet star who's just hit 3 million subs. While in the midst of throwing an epic party to celebrate, the universe had the balls to bring on the effing apocalypse and cut my night short. What was supposed to be a perfect hangover, has turned into an epic fight for survival.</t>
+          <t>Though safely entombed in a crypt deep beneath the unforgiving desert, an ancient queen whose destiny was unjustly taken from her is awakened in our current day, bringing with her malevolence grown over millennia, and terrors that defy human comprehension.</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>212.77</v>
+        <v>232.297</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2017-06-06</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Skal - Fight for Survival</t>
+          <t>The Mummy</t>
         </is>
       </c>
       <c r="J193" t="b">
         <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>5.352</v>
+        <v>5.509</v>
       </c>
       <c r="L193" t="n">
-        <v>61</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="194">
@@ -10101,48 +10101,48 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>[53, 28, 18, 878]</t>
+          <t>[10749]</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>61791</v>
+        <v>698438</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>ko</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Rise of the Planet of the Apes</t>
+          <t>스와핑 : 완벽한 이웃</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>A highly intelligent chimpanzee named Caesar has been living a peaceful suburban life ever since he was born. But when he gets taken to a cruel primate facility, Caesar decides to revolt against those who have harmed him.</t>
+          <t>Couple Jin-goo and Joo-hee have been experiencing a lover's slump after their marriage. Meanwhile, a new couple in the neighborhood, Hyun-jin and Yoo-jeong came to the other couple's house to introduce themselves. They're attracted with each other's husbands and wives, and in the end, crosses the line that is not supposed to be crossed within neighbors. After that day, two couples' passion intensifies...</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>236.569</v>
+        <v>232.788</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2011-08-03</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Rise of the Planet of the Apes</t>
+          <t>Swapping: Perfect Neighbor</t>
         </is>
       </c>
       <c r="J194" t="b">
         <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>7.304</v>
+        <v>4.7</v>
       </c>
       <c r="L194" t="n">
-        <v>11249</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -10151,11 +10151,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[9648, 53, 27]</t>
+          <t>[18, 878, 28]</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>419430</v>
+        <v>695721</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -10164,35 +10164,35 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Get Out</t>
+          <t>The Hunger Games: The Ballad of Songbirds &amp; Snakes</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Chris and his girlfriend Rose go upstate to visit her parents for the weekend. At first, Chris reads the family's overly accommodating behavior as nervous attempts to deal with their daughter's interracial relationship, but as the weekend progresses, a series of increasingly disturbing discoveries lead him to a truth that he never could have imagined.</t>
+          <t>64 years before he becomes the tyrannical president of Panem, Coriolanus Snow sees a chance for a change in fortunes when he mentors Lucy Gray Baird, the female tribute from District 12.</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>231.502</v>
+        <v>174.503</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2017-02-24</t>
+          <t>2023-11-15</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Get Out</t>
+          <t>The Hunger Games: The Ballad of Songbirds &amp; Snakes</t>
         </is>
       </c>
       <c r="J195" t="b">
         <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>7.623</v>
+        <v>7.161</v>
       </c>
       <c r="L195" t="n">
-        <v>16747</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="196">
@@ -10201,48 +10201,48 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[28, 878, 53]</t>
+          <t>[16, 12, 14]</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>274855</v>
+        <v>508883</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Geostorm</t>
+          <t>君たちはどう生きるか</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>After an unprecedented series of natural disasters threatened the planet, the world's leaders came together to create an intricate network of satellites to control the global climate and keep everyone safe. But now, something has gone wrong: the system built to protect Earth is attacking it, and it becomes a race against the clock to uncover the real threat before a worldwide geostorm wipes out everything and everyone along with it.</t>
+          <t>While the Second World War rages, the teenage Mahito, haunted by his mother's tragic death, is relocated from Tokyo to the serene rural home of his new stepmother Natsuko, a woman who bears a striking resemblance to the boy's mother. As he tries to adjust, this strange new world grows even stranger following the appearance of a persistent gray heron, who perplexes and bedevils Mahito, dubbing him the "long-awaited one."</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>196.304</v>
+        <v>259.219</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2017-10-12</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Geostorm</t>
+          <t>The Boy and the Heron</t>
         </is>
       </c>
       <c r="J196" t="b">
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>6.117</v>
+        <v>7.42</v>
       </c>
       <c r="L196" t="n">
-        <v>4627</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="197">
@@ -10251,48 +10251,48 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>[14, 53, 28, 12, 27]</t>
+          <t>[18, 10751]</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>282035</v>
+        <v>1107387</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>zh</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>The Mummy</t>
+          <t>忠犬八公</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Though safely entombed in a crypt deep beneath the unforgiving desert, an ancient queen whose destiny was unjustly taken from her is awakened in our current day, bringing with her malevolence grown over millennia, and terrors that defy human comprehension.</t>
+          <t>This is the story of a puppy that touched hundreds of millions of people around the world. Hachiko (/Batong) is a cute Chinese pastoral dog. He met his destined owner Chen Jingxiu in the vast crowd and became a member of the Chen family. With the passage of time, the once beautiful home is no longer there, but Batong is still waiting where it is, and its fate is closely tied to its family. This film is adapted from the original script "Hachiko" by Kaneto Shindo.</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>227.309</v>
+        <v>313.494</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2017-06-06</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>The Mummy</t>
+          <t>Hachiko</t>
         </is>
       </c>
       <c r="J197" t="b">
         <v>0</v>
       </c>
       <c r="K197" t="n">
-        <v>5.51</v>
+        <v>7.5</v>
       </c>
       <c r="L197" t="n">
-        <v>6966</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198">
@@ -10301,11 +10301,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>[27, 53, 12]</t>
+          <t>[16, 10751, 12, 18, 35]</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>578</v>
+        <v>150540</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -10314,35 +10314,35 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Jaws</t>
+          <t>Inside Out</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>When the seaside community of Amity finds itself under attack by a dangerous great white shark, the town's chief of police, a young marine biologist, and a grizzled hunter embark on a desperate quest to destroy the beast before it strikes again.</t>
+          <t>From an adventurous balloon ride above the clouds to a monster-filled metropolis, Academy Award®-winning director Pete Docter (“Monsters, Inc.,” “Up”) has taken audiences to unique and imaginative places. In Disney and Pixar’s original movie “ Inside Out,” he will take us to the most extraordinary location of all—inside the mind.</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>244.583</v>
+        <v>205.309</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>1975-06-20</t>
+          <t>2015-06-09</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Jaws</t>
+          <t>Inside Out</t>
         </is>
       </c>
       <c r="J198" t="b">
         <v>0</v>
       </c>
       <c r="K198" t="n">
-        <v>7.66</v>
+        <v>7.916</v>
       </c>
       <c r="L198" t="n">
-        <v>9979</v>
+        <v>20285</v>
       </c>
     </row>
     <row r="199">
@@ -10351,11 +10351,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>[878, 53]</t>
+          <t>[12, 28, 53, 878]</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>870404</v>
+        <v>2756</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -10364,35 +10364,35 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Meteor</t>
+          <t>The Abyss</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>After a meteor collides into Earth, a lonely rancher and a lost young girl are on the run from vicious mercenaries.</t>
+          <t>A civilian oil rig crew is recruited to conduct a search and rescue effort when a nuclear submarine mysteriously sinks. One diver soon finds himself on a spectacular odyssey 25,000 feet below the ocean's surface where he confronts a mysterious force that has the power to change the world or destroy it.</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>192.236</v>
+        <v>235.822</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>1989-08-09</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Meteor</t>
+          <t>The Abyss</t>
         </is>
       </c>
       <c r="J199" t="b">
         <v>0</v>
       </c>
       <c r="K199" t="n">
-        <v>5.462</v>
+        <v>7.349</v>
       </c>
       <c r="L199" t="n">
-        <v>92</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="200">
@@ -10401,11 +10401,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>[80, 18, 53]</t>
+          <t>[27]</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>10155</v>
+        <v>961613</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -10414,35 +10414,35 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>U Turn</t>
+          <t>A Haunting in Ravenwood</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>When Bobby's car breaks down in the desert while on the run from some of the bookies who have already taken two of his fingers, he becomes trapped in the nearby small town where the people are stranger than anyone he's encountered. After becoming involved with a young married woman, her husband hires Bobby to kill her. Later, she hires Bobby to kill the husband.</t>
+          <t>A newlywed couple arrives at the house of the husband's late wife, where the flowers have been maintained to the dead woman's memory. Soon, eerie events lead the new wife, to believe she is losing her mind.</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>232.179</v>
+        <v>213.561</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>1997-10-03</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>U Turn</t>
+          <t>A Haunting in Ravenwood</t>
         </is>
       </c>
       <c r="J200" t="b">
         <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>6.638</v>
+        <v>6</v>
       </c>
       <c r="L200" t="n">
-        <v>694</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -10451,48 +10451,48 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>[28, 80, 53, 18]</t>
+          <t>[16, 28, 12, 878]</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>551115</v>
+        <v>569094</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>en</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Penoza: The Final Chapter</t>
+          <t>Spider-Man: Across the Spider-Verse</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>The Black Widow is not dead ... Drug Queen Carmen van Walraven is hiding in Canada and leads an anonymous life there. One evening a colleague is harassed and Carmen helps her. In self-defense, she kills the perpetrator, is arrested and extradited to the Netherlands. While her children are in shock that their mother is still alive, there are also some people who still have to settle something with Carmen. Everyone is again dragged into an emotional rollercoaster. Carmen will now have deal with her past to save her family.</t>
+          <t>After reuniting with Gwen Stacy, Brooklyn’s full-time, friendly neighborhood Spider-Man is catapulted across the Multiverse, where he encounters the Spider Society, a team of Spider-People charged with protecting the Multiverse’s very existence. But when the heroes clash on how to handle a new threat, Miles finds himself pitted against the other Spiders and must set out on his own to save those he loves most.</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>184.344</v>
+        <v>204.21</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2019-11-28</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Penoza: The Final Chapter</t>
+          <t>Spider-Man: Across the Spider-Verse</t>
         </is>
       </c>
       <c r="J201" t="b">
         <v>0</v>
       </c>
       <c r="K201" t="n">
-        <v>7.292</v>
+        <v>8.368</v>
       </c>
       <c r="L201" t="n">
-        <v>48</v>
+        <v>6215</v>
       </c>
     </row>
   </sheetData>
